--- a/imagenesSeg/si/RE/medidasSimilitudRE-propro5.xlsx
+++ b/imagenesSeg/si/RE/medidasSimilitudRE-propro5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Daniela\Tesis\Trabajo-de-grado_Artefactos\imagenesSeg\si\RE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\imagenesSeg\si\RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,28 +447,28 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -488,28 +488,28 @@
         <v>0.93072831934016298</v>
       </c>
       <c r="F2">
+        <v>0.4619609787729102</v>
+      </c>
+      <c r="G2">
+        <v>0.89074431878514715</v>
+      </c>
+      <c r="H2">
+        <v>6.7329856698365401E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.92674916692214604</v>
+      </c>
+      <c r="J2">
+        <v>0.41799290759804619</v>
+      </c>
+      <c r="K2">
         <v>2257.0206908491582</v>
       </c>
-      <c r="G2">
-        <v>0.4619609787729102</v>
-      </c>
-      <c r="H2">
-        <v>0.89074431878514715</v>
-      </c>
-      <c r="I2">
+      <c r="L2">
         <v>4493.0429700784089</v>
       </c>
-      <c r="J2">
-        <v>6.7329856698365401E-2</v>
-      </c>
-      <c r="K2">
-        <v>0.92674916692214604</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
         <v>2458.8939316598089</v>
-      </c>
-      <c r="M2">
-        <v>0.41799290759804619</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -529,28 +529,28 @@
         <v>0.97215143858646214</v>
       </c>
       <c r="F3">
+        <v>0.73840334884511594</v>
+      </c>
+      <c r="G3">
+        <v>0.71634022941378284</v>
+      </c>
+      <c r="H3">
+        <v>4.8428777148718759E-3</v>
+      </c>
+      <c r="I3">
+        <v>0.95359929080019223</v>
+      </c>
+      <c r="J3">
+        <v>0.60167227964231795</v>
+      </c>
+      <c r="K3">
         <v>882.28470384041179</v>
       </c>
-      <c r="G3">
-        <v>0.73840334884511594</v>
-      </c>
-      <c r="H3">
-        <v>0.71634022941378284</v>
-      </c>
-      <c r="I3">
+      <c r="L3">
         <v>14977.367313223</v>
       </c>
-      <c r="J3">
-        <v>4.8428777148718759E-3</v>
-      </c>
-      <c r="K3">
-        <v>0.95359929080019223</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
         <v>2022.144174581658</v>
-      </c>
-      <c r="M3">
-        <v>0.60167227964231795</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -570,28 +570,28 @@
         <v>0.8012842455429352</v>
       </c>
       <c r="F4">
+        <v>1.6922162623430451E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.95903259195137358</v>
+      </c>
+      <c r="H4">
+        <v>0.30550411725306331</v>
+      </c>
+      <c r="I4">
+        <v>0.8283879297607798</v>
+      </c>
+      <c r="J4">
+        <v>1.640228262755377E-2</v>
+      </c>
+      <c r="K4">
         <v>11478.912918023239</v>
       </c>
-      <c r="G4">
-        <v>1.6922162623430451E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.95903259195137358</v>
-      </c>
-      <c r="I4">
+      <c r="L4">
         <v>1529.6051961738731</v>
       </c>
-      <c r="J4">
-        <v>0.30550411725306331</v>
-      </c>
-      <c r="K4">
-        <v>0.8283879297607798</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
         <v>9321.6892408546191</v>
-      </c>
-      <c r="M4">
-        <v>1.640228262755377E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -611,28 +611,28 @@
         <v>0.84085167407833283</v>
       </c>
       <c r="F5">
+        <v>3.6713707678434002E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.95583507755189157</v>
+      </c>
+      <c r="H5">
+        <v>0.39893686225675151</v>
+      </c>
+      <c r="I5">
+        <v>0.89719214125848246</v>
+      </c>
+      <c r="J5">
+        <v>5.7591667444168312E-2</v>
+      </c>
+      <c r="K5">
         <v>9032.9083624227187</v>
       </c>
-      <c r="G5">
-        <v>3.6713707678434002E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.95583507755189157</v>
-      </c>
-      <c r="I5">
+      <c r="L5">
         <v>1369.3953355762101</v>
       </c>
-      <c r="J5">
-        <v>0.39893686225675151</v>
-      </c>
-      <c r="K5">
-        <v>0.89719214125848246</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
         <v>4882.0542302642743</v>
-      </c>
-      <c r="M5">
-        <v>5.7591667444168312E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -652,28 +652,28 @@
         <v>0.76261823821218955</v>
       </c>
       <c r="F6">
+        <v>3.4975814596289803E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.87340574180289166</v>
+      </c>
+      <c r="H6">
+        <v>1.2004287245444801E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.87982957744106816</v>
+      </c>
+      <c r="J6">
+        <v>2.2149270260649451E-3</v>
+      </c>
+      <c r="K6">
         <v>13498.274131774901</v>
       </c>
-      <c r="G6">
-        <v>3.4975814596289803E-2</v>
-      </c>
-      <c r="H6">
-        <v>0.87340574180289166</v>
-      </c>
-      <c r="I6">
+      <c r="L6">
         <v>5693.8679275512704</v>
       </c>
-      <c r="J6">
-        <v>1.2004287245444801E-2</v>
-      </c>
-      <c r="K6">
-        <v>0.87982957744106816</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
         <v>6235.1145324707031</v>
-      </c>
-      <c r="M6">
-        <v>2.2149270260649451E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -693,28 +693,28 @@
         <v>0.9122207438900739</v>
       </c>
       <c r="F7">
+        <v>0.36320468865441929</v>
+      </c>
+      <c r="G7">
+        <v>0.90950552469454604</v>
+      </c>
+      <c r="H7">
+        <v>4.5763853958070373E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.8791213542978692</v>
+      </c>
+      <c r="J7">
+        <v>0.28230655495317891</v>
+      </c>
+      <c r="K7">
         <v>3267.243814970207</v>
       </c>
-      <c r="G7">
-        <v>0.36320468865441929</v>
-      </c>
-      <c r="H7">
-        <v>0.90950552469454604</v>
-      </c>
-      <c r="I7">
+      <c r="L7">
         <v>4327.8803005830696</v>
       </c>
-      <c r="J7">
-        <v>4.5763853958070373E-2</v>
-      </c>
-      <c r="K7">
-        <v>0.8791213542978692</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
         <v>4398.0531227951096</v>
-      </c>
-      <c r="M7">
-        <v>0.28230655495317891</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -734,28 +734,28 @@
         <v>0.94924868187116895</v>
       </c>
       <c r="F8">
+        <v>0.2422002116803311</v>
+      </c>
+      <c r="G8">
+        <v>0.93607530196546307</v>
+      </c>
+      <c r="H8">
+        <v>3.496707446236972E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.95485886887833038</v>
+      </c>
+      <c r="J8">
+        <v>0.30451366815003178</v>
+      </c>
+      <c r="K8">
         <v>2005.24873606303</v>
       </c>
-      <c r="G8">
-        <v>0.2422002116803311</v>
-      </c>
-      <c r="H8">
-        <v>0.93607530196546307</v>
-      </c>
-      <c r="I8">
+      <c r="L8">
         <v>2670.464771557004</v>
       </c>
-      <c r="J8">
-        <v>3.496707446236972E-2</v>
-      </c>
-      <c r="K8">
-        <v>0.95485886887833038</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
         <v>1621.505507460646</v>
-      </c>
-      <c r="M8">
-        <v>0.30451366815003178</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -775,28 +775,28 @@
         <v>0.90190379568864154</v>
       </c>
       <c r="F9">
+        <v>0.34151335954267109</v>
+      </c>
+      <c r="G9">
+        <v>0.91499315479198395</v>
+      </c>
+      <c r="H9">
+        <v>5.2625808573621309E-4</v>
+      </c>
+      <c r="I9">
+        <v>0.93497483177959306</v>
+      </c>
+      <c r="J9">
+        <v>0.4330193990400672</v>
+      </c>
+      <c r="K9">
         <v>4333.1760044683497</v>
       </c>
-      <c r="G9">
-        <v>0.34151335954267109</v>
-      </c>
-      <c r="H9">
-        <v>0.91499315479198395</v>
-      </c>
-      <c r="I9">
+      <c r="L9">
         <v>3916.995484933404</v>
       </c>
-      <c r="J9">
-        <v>5.2625808573621309E-4</v>
-      </c>
-      <c r="K9">
-        <v>0.93497483177959306</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
         <v>2501.3527199978571</v>
-      </c>
-      <c r="M9">
-        <v>0.4330193990400672</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -816,28 +816,28 @@
         <v>0.9082501064599422</v>
       </c>
       <c r="F10">
+        <v>0.36536729705390453</v>
+      </c>
+      <c r="G10">
+        <v>0.90062831072753735</v>
+      </c>
+      <c r="H10">
+        <v>0.1161122789662421</v>
+      </c>
+      <c r="I10">
+        <v>0.90983878633594795</v>
+      </c>
+      <c r="J10">
+        <v>0.37709019091507567</v>
+      </c>
+      <c r="K10">
         <v>2181.199974060059</v>
       </c>
-      <c r="G10">
-        <v>0.36536729705390453</v>
-      </c>
-      <c r="H10">
-        <v>0.90062831072753735</v>
-      </c>
-      <c r="I10">
+      <c r="L10">
         <v>3277.7649536132808</v>
       </c>
-      <c r="J10">
-        <v>0.1161122789662421</v>
-      </c>
-      <c r="K10">
-        <v>0.90983878633594795</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
         <v>2089.4192733764648</v>
-      </c>
-      <c r="M10">
-        <v>0.37709019091507567</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -857,28 +857,28 @@
         <v>0.90431122956794951</v>
       </c>
       <c r="F11">
+        <v>0.18606011172840459</v>
+      </c>
+      <c r="G11">
+        <v>0.98740296126114735</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.90311581193739021</v>
+      </c>
+      <c r="J11">
+        <v>0.19171006040408251</v>
+      </c>
+      <c r="K11">
         <v>3931.4488326723508</v>
       </c>
-      <c r="G11">
-        <v>0.18606011172840459</v>
-      </c>
-      <c r="H11">
-        <v>0.98740296126114735</v>
-      </c>
-      <c r="I11">
+      <c r="L11">
         <v>677.05953302314504</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.90311581193739021</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
         <v>4339.4042232622896</v>
-      </c>
-      <c r="M11">
-        <v>0.19171006040408251</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -898,28 +898,28 @@
         <v>0.89917737498808092</v>
       </c>
       <c r="F12">
+        <v>0.16453729521272911</v>
+      </c>
+      <c r="G12">
+        <v>0.94176441912064579</v>
+      </c>
+      <c r="H12">
+        <v>1.9610393833945819E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.90806020056246084</v>
+      </c>
+      <c r="J12">
+        <v>0.16450223446982859</v>
+      </c>
+      <c r="K12">
         <v>5259.0032365305433</v>
       </c>
-      <c r="G12">
-        <v>0.16453729521272911</v>
-      </c>
-      <c r="H12">
-        <v>0.94176441912064579</v>
-      </c>
-      <c r="I12">
+      <c r="L12">
         <v>2567.120834366719</v>
       </c>
-      <c r="J12">
-        <v>1.9610393833945819E-2</v>
-      </c>
-      <c r="K12">
-        <v>0.90806020056246084</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
         <v>4491.6882893379989</v>
-      </c>
-      <c r="M12">
-        <v>0.16450223446982859</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -939,28 +939,28 @@
         <v>0.9125445452565113</v>
       </c>
       <c r="F13">
+        <v>0.1046264142489078</v>
+      </c>
+      <c r="G13">
+        <v>0.79303056318545251</v>
+      </c>
+      <c r="H13">
+        <v>2.841525013261988E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.98271424810593633</v>
+      </c>
+      <c r="J13">
+        <v>0.42484711940778891</v>
+      </c>
+      <c r="K13">
         <v>3923.0951194763179</v>
       </c>
-      <c r="G13">
-        <v>0.1046264142489078</v>
-      </c>
-      <c r="H13">
-        <v>0.79303056318545251</v>
-      </c>
-      <c r="I13">
+      <c r="L13">
         <v>10418.463905334471</v>
       </c>
-      <c r="J13">
-        <v>2.841525013261988E-2</v>
-      </c>
-      <c r="K13">
-        <v>0.98271424810593633</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
         <v>388.45742034912109</v>
-      </c>
-      <c r="M13">
-        <v>0.42484711940778891</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -980,28 +980,28 @@
         <v>0.93969261502337909</v>
       </c>
       <c r="F14">
+        <v>0.42081062471553438</v>
+      </c>
+      <c r="G14">
+        <v>0.88327971454298948</v>
+      </c>
+      <c r="H14">
+        <v>0.122651835156193</v>
+      </c>
+      <c r="I14">
+        <v>0.93377467403808534</v>
+      </c>
+      <c r="J14">
+        <v>0.43410311720170869</v>
+      </c>
+      <c r="K14">
         <v>1997.3229419932111</v>
       </c>
-      <c r="G14">
-        <v>0.42081062471553438</v>
-      </c>
-      <c r="H14">
-        <v>0.88327971454298948</v>
-      </c>
-      <c r="I14">
+      <c r="L14">
         <v>4620.3886598455174</v>
       </c>
-      <c r="J14">
-        <v>0.122651835156193</v>
-      </c>
-      <c r="K14">
-        <v>0.93377467403808534</v>
-      </c>
-      <c r="L14">
+      <c r="M14">
         <v>2184.4302043665339</v>
-      </c>
-      <c r="M14">
-        <v>0.43410311720170869</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1021,28 +1021,28 @@
         <v>0.86907071943577519</v>
       </c>
       <c r="F15">
+        <v>5.2442369419317188E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.48642714964752742</v>
+      </c>
+      <c r="H15">
+        <v>4.9130237482982897E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.92066891439546239</v>
+      </c>
+      <c r="J15">
+        <v>9.1491606923336341E-2</v>
+      </c>
+      <c r="K15">
         <v>7173.8720873114398</v>
       </c>
-      <c r="G15">
-        <v>5.2442369419317188E-2</v>
-      </c>
-      <c r="H15">
-        <v>0.48642714964752742</v>
-      </c>
-      <c r="I15">
+      <c r="L15">
         <v>28115.903640564429</v>
       </c>
-      <c r="J15">
-        <v>4.9130237482982897E-2</v>
-      </c>
-      <c r="K15">
-        <v>0.92066891439546239</v>
-      </c>
-      <c r="L15">
+      <c r="M15">
         <v>3651.0877950989679</v>
-      </c>
-      <c r="M15">
-        <v>9.1491606923336341E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1062,28 +1062,28 @@
         <v>0.86521650103664327</v>
       </c>
       <c r="F16">
+        <v>0.29379990605918271</v>
+      </c>
+      <c r="G16">
+        <v>0.91024203989375818</v>
+      </c>
+      <c r="H16">
+        <v>6.7986933442221306E-3</v>
+      </c>
+      <c r="I16">
+        <v>0.9018669335594115</v>
+      </c>
+      <c r="J16">
+        <v>0.33271721850778507</v>
+      </c>
+      <c r="K16">
         <v>5147.5863080536783</v>
       </c>
-      <c r="G16">
-        <v>0.29379990605918271</v>
-      </c>
-      <c r="H16">
-        <v>0.91024203989375818</v>
-      </c>
-      <c r="I16">
+      <c r="L16">
         <v>4104.1572345148397</v>
       </c>
-      <c r="J16">
-        <v>6.7986933442221306E-3</v>
-      </c>
-      <c r="K16">
-        <v>0.9018669335594115</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
         <v>3686.1407344609088</v>
-      </c>
-      <c r="M16">
-        <v>0.33271721850778507</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1103,28 +1103,28 @@
         <v>0.94200921578178098</v>
       </c>
       <c r="F17">
+        <v>8.6920857611585675E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.94524231485685928</v>
+      </c>
+      <c r="H17">
+        <v>0.12088574372533389</v>
+      </c>
+      <c r="I17">
+        <v>0.95540375350883389</v>
+      </c>
+      <c r="J17">
+        <v>0.1498196958994758</v>
+      </c>
+      <c r="K17">
         <v>2808.9269826068262</v>
       </c>
-      <c r="G17">
-        <v>8.6920857611585675E-2</v>
-      </c>
-      <c r="H17">
-        <v>0.94524231485685928</v>
-      </c>
-      <c r="I17">
+      <c r="L17">
         <v>1954.3773831712781</v>
       </c>
-      <c r="J17">
-        <v>0.12088574372533389</v>
-      </c>
-      <c r="K17">
-        <v>0.95540375350883389</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
         <v>1969.002684857008</v>
-      </c>
-      <c r="M17">
-        <v>0.1498196958994758</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1144,28 +1144,28 @@
         <v>0.90815842857252538</v>
       </c>
       <c r="F18">
+        <v>0.29271467623193848</v>
+      </c>
+      <c r="G18">
+        <v>0.97770466677501311</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.90393481872817305</v>
+      </c>
+      <c r="J18">
+        <v>0.31700195547936028</v>
+      </c>
+      <c r="K18">
         <v>3624.2215506818952</v>
       </c>
-      <c r="G18">
-        <v>0.29271467623193848</v>
-      </c>
-      <c r="H18">
-        <v>0.97770466677501311</v>
-      </c>
-      <c r="I18">
+      <c r="L18">
         <v>1139.420188723313</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0.90393481872817305</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
         <v>3787.784229856843</v>
-      </c>
-      <c r="M18">
-        <v>0.31700195547936028</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1185,28 +1185,28 @@
         <v>0.94195306427419023</v>
       </c>
       <c r="F19">
+        <v>0.1921556177667465</v>
+      </c>
+      <c r="G19">
+        <v>0.95106469644191549</v>
+      </c>
+      <c r="H19">
+        <v>2.468868435300487E-3</v>
+      </c>
+      <c r="I19">
+        <v>0.95640629696724422</v>
+      </c>
+      <c r="J19">
+        <v>0.25658697963845462</v>
+      </c>
+      <c r="K19">
         <v>2417.019970169782</v>
       </c>
-      <c r="G19">
-        <v>0.1921556177667465</v>
-      </c>
-      <c r="H19">
-        <v>0.95106469644191549</v>
-      </c>
-      <c r="I19">
+      <c r="L19">
         <v>1965.889949717327</v>
       </c>
-      <c r="J19">
-        <v>2.468868435300487E-3</v>
-      </c>
-      <c r="K19">
-        <v>0.95640629696724422</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
         <v>1602.2437002386</v>
-      </c>
-      <c r="M19">
-        <v>0.25658697963845462</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1226,28 +1226,28 @@
         <v>0.89932010150751307</v>
       </c>
       <c r="F20">
+        <v>0.17171958426109271</v>
+      </c>
+      <c r="G20">
+        <v>0.82747383180491763</v>
+      </c>
+      <c r="H20">
+        <v>0.17682819037143249</v>
+      </c>
+      <c r="I20">
+        <v>0.88539656867974659</v>
+      </c>
+      <c r="J20">
+        <v>0.1671287187742205</v>
+      </c>
+      <c r="K20">
         <v>4626.8154779121041</v>
       </c>
-      <c r="G20">
-        <v>0.17171958426109271</v>
-      </c>
-      <c r="H20">
-        <v>0.82747383180491763</v>
-      </c>
-      <c r="I20">
+      <c r="L20">
         <v>7370.8153755467783</v>
       </c>
-      <c r="J20">
-        <v>0.17682819037143249</v>
-      </c>
-      <c r="K20">
-        <v>0.88539656867974659</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
         <v>4814.8708630496212</v>
-      </c>
-      <c r="M20">
-        <v>0.1671287187742205</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1267,28 +1267,28 @@
         <v>0.93420623156838756</v>
       </c>
       <c r="F21">
+        <v>0.46205666732712503</v>
+      </c>
+      <c r="G21">
+        <v>0.89655508593314481</v>
+      </c>
+      <c r="H21">
+        <v>6.3494082060878018E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.92954042784187241</v>
+      </c>
+      <c r="J21">
+        <v>0.44447440131724653</v>
+      </c>
+      <c r="K21">
         <v>2184.206143156191</v>
       </c>
-      <c r="G21">
-        <v>0.46205666732712503</v>
-      </c>
-      <c r="H21">
-        <v>0.89655508593314481</v>
-      </c>
-      <c r="I21">
+      <c r="L21">
         <v>4366.3388903736059</v>
       </c>
-      <c r="J21">
-        <v>6.3494082060878018E-2</v>
-      </c>
-      <c r="K21">
-        <v>0.92954042784187241</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
         <v>2341.5943468233431</v>
-      </c>
-      <c r="M21">
-        <v>0.44447440131724653</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1308,28 +1308,28 @@
         <v>0.85255552885024799</v>
       </c>
       <c r="F22">
+        <v>0.17394465302985451</v>
+      </c>
+      <c r="G22">
+        <v>0.91836169305646231</v>
+      </c>
+      <c r="H22">
+        <v>0.1431052962264848</v>
+      </c>
+      <c r="I22">
+        <v>0.86078406950713393</v>
+      </c>
+      <c r="J22">
+        <v>0.1989958653278204</v>
+      </c>
+      <c r="K22">
         <v>6921.5228765893244</v>
       </c>
-      <c r="G22">
-        <v>0.17394465302985451</v>
-      </c>
-      <c r="H22">
-        <v>0.91836169305646231</v>
-      </c>
-      <c r="I22">
+      <c r="L22">
         <v>2923.099275129829</v>
       </c>
-      <c r="J22">
-        <v>0.1431052962264848</v>
-      </c>
-      <c r="K22">
-        <v>0.86078406950713393</v>
-      </c>
-      <c r="L22">
+      <c r="M22">
         <v>5874.7860599036394</v>
-      </c>
-      <c r="M22">
-        <v>0.1989958653278204</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1349,28 +1349,28 @@
         <v>0.89760052010769076</v>
       </c>
       <c r="F23">
+        <v>0.25388637548799908</v>
+      </c>
+      <c r="G23">
+        <v>0.92518781332434441</v>
+      </c>
+      <c r="H23">
+        <v>8.4038547450379725E-2</v>
+      </c>
+      <c r="I23">
+        <v>0.90707506183441744</v>
+      </c>
+      <c r="J23">
+        <v>0.2788844621513944</v>
+      </c>
+      <c r="K23">
         <v>4565.1317462356701</v>
       </c>
-      <c r="G23">
-        <v>0.25388637548799908</v>
-      </c>
-      <c r="H23">
-        <v>0.92518781332434441</v>
-      </c>
-      <c r="I23">
+      <c r="L23">
         <v>3026.4597164961378</v>
       </c>
-      <c r="J23">
-        <v>8.4038547450379725E-2</v>
-      </c>
-      <c r="K23">
-        <v>0.90707506183441744</v>
-      </c>
-      <c r="L23">
+      <c r="M23">
         <v>3665.993222590997</v>
-      </c>
-      <c r="M23">
-        <v>0.2788844621513944</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1390,28 +1390,28 @@
         <v>0.92486059174858792</v>
       </c>
       <c r="F24">
+        <v>0.4844734601192166</v>
+      </c>
+      <c r="G24">
+        <v>0.51491318471457648</v>
+      </c>
+      <c r="H24">
+        <v>1.7594206225802749E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.92816540993937069</v>
+      </c>
+      <c r="J24">
+        <v>0.52052076875387476</v>
+      </c>
+      <c r="K24">
         <v>2013.6325531005859</v>
       </c>
-      <c r="G24">
-        <v>0.4844734601192166</v>
-      </c>
-      <c r="H24">
-        <v>0.51491318471457648</v>
-      </c>
-      <c r="I24">
+      <c r="L24">
         <v>23110.798957824711</v>
       </c>
-      <c r="J24">
-        <v>1.7594206225802749E-2</v>
-      </c>
-      <c r="K24">
-        <v>0.92816540993937069</v>
-      </c>
-      <c r="L24">
+      <c r="M24">
         <v>1674.665935516357</v>
-      </c>
-      <c r="M24">
-        <v>0.52052076875387476</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1431,28 +1431,28 @@
         <v>0.91627184097302439</v>
       </c>
       <c r="F25">
+        <v>0.41852268083367389</v>
+      </c>
+      <c r="G25">
+        <v>0.89022841702416322</v>
+      </c>
+      <c r="H25">
+        <v>7.5121891440025915E-2</v>
+      </c>
+      <c r="I25">
+        <v>0.90943612280301545</v>
+      </c>
+      <c r="J25">
+        <v>0.39852087159378569</v>
+      </c>
+      <c r="K25">
         <v>2816.0710539025581</v>
       </c>
-      <c r="G25">
-        <v>0.41852268083367389</v>
-      </c>
-      <c r="H25">
-        <v>0.89022841702416322</v>
-      </c>
-      <c r="I25">
+      <c r="L25">
         <v>4489.4164592452034</v>
       </c>
-      <c r="J25">
-        <v>7.5121891440025915E-2</v>
-      </c>
-      <c r="K25">
-        <v>0.90943612280301545</v>
-      </c>
-      <c r="L25">
+      <c r="M25">
         <v>3014.886371053009</v>
-      </c>
-      <c r="M25">
-        <v>0.39852087159378569</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1472,28 +1472,28 @@
         <v>0.78632630211104504</v>
       </c>
       <c r="F26">
+        <v>0.10132481767574331</v>
+      </c>
+      <c r="G26">
+        <v>0.92159532203160199</v>
+      </c>
+      <c r="H26">
+        <v>9.9570647453853783E-3</v>
+      </c>
+      <c r="I26">
+        <v>0.84528986010667595</v>
+      </c>
+      <c r="J26">
+        <v>0.12871165179163591</v>
+      </c>
+      <c r="K26">
         <v>11932.86747881072</v>
       </c>
-      <c r="G26">
-        <v>0.10132481767574331</v>
-      </c>
-      <c r="H26">
-        <v>0.92159532203160199</v>
-      </c>
-      <c r="I26">
+      <c r="L26">
         <v>3452.7348435768499</v>
       </c>
-      <c r="J26">
-        <v>9.9570647453853783E-3</v>
-      </c>
-      <c r="K26">
-        <v>0.84528986010667595</v>
-      </c>
-      <c r="L26">
+      <c r="M26">
         <v>8055.1709837582639</v>
-      </c>
-      <c r="M26">
-        <v>0.12871165179163591</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1513,28 +1513,28 @@
         <v>0.96646111512397903</v>
       </c>
       <c r="F27">
+        <v>0.49030668482137069</v>
+      </c>
+      <c r="G27">
+        <v>0.98143009400121117</v>
+      </c>
+      <c r="H27">
+        <v>2.5351252290775811E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.97605988321802106</v>
+      </c>
+      <c r="J27">
+        <v>0.49548822021698669</v>
+      </c>
+      <c r="K27">
         <v>1154.5695668202341</v>
       </c>
-      <c r="G27">
-        <v>0.49030668482137069</v>
-      </c>
-      <c r="H27">
-        <v>0.98143009400121117</v>
-      </c>
-      <c r="I27">
+      <c r="L27">
         <v>921.51517777818481</v>
       </c>
-      <c r="J27">
-        <v>2.5351252290775811E-2</v>
-      </c>
-      <c r="K27">
-        <v>0.97605988321802106</v>
-      </c>
-      <c r="L27">
+      <c r="M27">
         <v>1050.8196984823369</v>
-      </c>
-      <c r="M27">
-        <v>0.49548822021698669</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1554,28 +1554,28 @@
         <v>0.8722475661464788</v>
       </c>
       <c r="F28">
+        <v>0.2081837524336847</v>
+      </c>
+      <c r="G28">
+        <v>0.94407902535392785</v>
+      </c>
+      <c r="H28">
+        <v>5.2826379542395691E-2</v>
+      </c>
+      <c r="I28">
+        <v>0.94440789722991814</v>
+      </c>
+      <c r="J28">
+        <v>0.31655805165484452</v>
+      </c>
+      <c r="K28">
         <v>4192.2725514591866</v>
       </c>
-      <c r="G28">
-        <v>0.2081837524336847</v>
-      </c>
-      <c r="H28">
-        <v>0.94407902535392785</v>
-      </c>
-      <c r="I28">
+      <c r="L28">
         <v>2394.1155086217018</v>
       </c>
-      <c r="J28">
-        <v>5.2826379542395691E-2</v>
-      </c>
-      <c r="K28">
-        <v>0.94440789722991814</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
         <v>1786.579569117549</v>
-      </c>
-      <c r="M28">
-        <v>0.31655805165484452</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1595,28 +1595,28 @@
         <v>0.94332747604765887</v>
       </c>
       <c r="F29">
+        <v>0.3397175262144233</v>
+      </c>
+      <c r="G29">
+        <v>0.93338838962878479</v>
+      </c>
+      <c r="H29">
+        <v>4.4075861600163142E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.93077835769904627</v>
+      </c>
+      <c r="J29">
+        <v>0.29630242956163799</v>
+      </c>
+      <c r="K29">
         <v>2066.1623733916108</v>
       </c>
-      <c r="G29">
-        <v>0.3397175262144233</v>
-      </c>
-      <c r="H29">
-        <v>0.93338838962878479</v>
-      </c>
-      <c r="I29">
+      <c r="L29">
         <v>3002.160133033703</v>
       </c>
-      <c r="J29">
-        <v>4.4075861600163142E-2</v>
-      </c>
-      <c r="K29">
-        <v>0.93077835769904627</v>
-      </c>
-      <c r="L29">
+      <c r="M29">
         <v>2519.524476648683</v>
-      </c>
-      <c r="M29">
-        <v>0.29630242956163799</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1636,28 +1636,28 @@
         <v>0.79991529066133127</v>
       </c>
       <c r="F30">
+        <v>0.48826158740385778</v>
+      </c>
+      <c r="G30">
+        <v>0.7121896836768481</v>
+      </c>
+      <c r="H30">
+        <v>0.1080736290933007</v>
+      </c>
+      <c r="I30">
+        <v>0.85164270988474255</v>
+      </c>
+      <c r="J30">
+        <v>0.47974115910768012</v>
+      </c>
+      <c r="K30">
         <v>8862.3785888836755</v>
       </c>
-      <c r="G30">
-        <v>0.48826158740385778</v>
-      </c>
-      <c r="H30">
-        <v>0.7121896836768481</v>
-      </c>
-      <c r="I30">
+      <c r="L30">
         <v>13757.36526078082</v>
       </c>
-      <c r="J30">
-        <v>0.1080736290933007</v>
-      </c>
-      <c r="K30">
-        <v>0.85164270988474255</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
         <v>5822.5654399544919</v>
-      </c>
-      <c r="M30">
-        <v>0.47974115910768012</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1677,28 +1677,28 @@
         <v>0.94870004280417985</v>
       </c>
       <c r="F31">
+        <v>0.58751218049621468</v>
+      </c>
+      <c r="G31">
+        <v>0.96968213337833964</v>
+      </c>
+      <c r="H31">
+        <v>1.861036737918623E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.90816490229164715</v>
+      </c>
+      <c r="J31">
+        <v>0.38118157233228889</v>
+      </c>
+      <c r="K31">
         <v>1633.9791939531599</v>
       </c>
-      <c r="G31">
-        <v>0.58751218049621468</v>
-      </c>
-      <c r="H31">
-        <v>0.96968213337833964</v>
-      </c>
-      <c r="I31">
+      <c r="L31">
         <v>1624.4760466564701</v>
       </c>
-      <c r="J31">
-        <v>1.861036737918623E-2</v>
-      </c>
-      <c r="K31">
-        <v>0.90816490229164715</v>
-      </c>
-      <c r="L31">
+      <c r="M31">
         <v>3860.369162216869</v>
-      </c>
-      <c r="M31">
-        <v>0.38118157233228889</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1718,28 +1718,28 @@
         <v>0.929583195662669</v>
       </c>
       <c r="F32">
+        <v>0.48652214602414812</v>
+      </c>
+      <c r="G32">
+        <v>0.91617294935087212</v>
+      </c>
+      <c r="H32">
+        <v>6.9906621392190157E-2</v>
+      </c>
+      <c r="I32">
+        <v>0.92995716395910444</v>
+      </c>
+      <c r="J32">
+        <v>0.44688710991171848</v>
+      </c>
+      <c r="K32">
         <v>2828.1543875221482</v>
       </c>
-      <c r="G32">
-        <v>0.48652214602414812</v>
-      </c>
-      <c r="H32">
-        <v>0.91617294935087212</v>
-      </c>
-      <c r="I32">
+      <c r="L32">
         <v>3754.627998222003</v>
       </c>
-      <c r="J32">
-        <v>6.9906621392190157E-2</v>
-      </c>
-      <c r="K32">
-        <v>0.92995716395910444</v>
-      </c>
-      <c r="L32">
+      <c r="M32">
         <v>2841.9191609340942</v>
-      </c>
-      <c r="M32">
-        <v>0.44688710991171848</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1759,28 +1759,28 @@
         <v>0.91282934121518633</v>
       </c>
       <c r="F33">
+        <v>8.4566720037489745E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.85191434976554825</v>
+      </c>
+      <c r="H33">
+        <v>0.1445348120764017</v>
+      </c>
+      <c r="I33">
+        <v>0.92167433425099987</v>
+      </c>
+      <c r="J33">
+        <v>0.11454236465161451</v>
+      </c>
+      <c r="K33">
         <v>4078.2145116933489</v>
       </c>
-      <c r="G33">
-        <v>8.4566720037489745E-2</v>
-      </c>
-      <c r="H33">
-        <v>0.85191434976554825</v>
-      </c>
-      <c r="I33">
+      <c r="L33">
         <v>6129.1350920016957</v>
       </c>
-      <c r="J33">
-        <v>0.1445348120764017</v>
-      </c>
-      <c r="K33">
-        <v>0.92167433425099987</v>
-      </c>
-      <c r="L33">
+      <c r="M33">
         <v>3150.1396737088062</v>
-      </c>
-      <c r="M33">
-        <v>0.11454236465161451</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1800,28 +1800,28 @@
         <v>0.85421666370087612</v>
       </c>
       <c r="F34">
+        <v>0.10260965449644691</v>
+      </c>
+      <c r="G34">
+        <v>0.54916871248806953</v>
+      </c>
+      <c r="H34">
+        <v>3.3893937742188042E-3</v>
+      </c>
+      <c r="I34">
+        <v>0.87875794150379871</v>
+      </c>
+      <c r="J34">
+        <v>0.13802805246389999</v>
+      </c>
+      <c r="K34">
         <v>7250.742115020752</v>
       </c>
-      <c r="G34">
-        <v>0.10260965449644691</v>
-      </c>
-      <c r="H34">
-        <v>0.54916871248806953</v>
-      </c>
-      <c r="I34">
+      <c r="L34">
         <v>24905.353073120121</v>
       </c>
-      <c r="J34">
-        <v>3.3893937742188042E-3</v>
-      </c>
-      <c r="K34">
-        <v>0.87875794150379871</v>
-      </c>
-      <c r="L34">
+      <c r="M34">
         <v>5155.0921859741211</v>
-      </c>
-      <c r="M34">
-        <v>0.13802805246389999</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1841,28 +1841,28 @@
         <v>0.98008080956751531</v>
       </c>
       <c r="F35">
+        <v>0.24593399115345349</v>
+      </c>
+      <c r="G35">
+        <v>0.99023042510621573</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.96955162489088087</v>
+      </c>
+      <c r="J35">
+        <v>0.19088251560401359</v>
+      </c>
+      <c r="K35">
         <v>818.60034255044377</v>
       </c>
-      <c r="G35">
-        <v>0.24593399115345349</v>
-      </c>
-      <c r="H35">
-        <v>0.99023042510621573</v>
-      </c>
-      <c r="I35">
+      <c r="L35">
         <v>441.43537108104891</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0.96955162489088087</v>
-      </c>
-      <c r="L35">
+      <c r="M35">
         <v>1522.57858166714</v>
-      </c>
-      <c r="M35">
-        <v>0.19088251560401359</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1882,28 +1882,28 @@
         <v>0.80021087566479943</v>
       </c>
       <c r="F36">
+        <v>4.6148351167740617E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.91863478305611035</v>
+      </c>
+      <c r="H36">
+        <v>4.8688492259146038E-2</v>
+      </c>
+      <c r="I36">
+        <v>0.81039908892632218</v>
+      </c>
+      <c r="J36">
+        <v>3.7823285546269063E-2</v>
+      </c>
+      <c r="K36">
         <v>11553.29232376847</v>
       </c>
-      <c r="G36">
-        <v>4.6148351167740617E-2</v>
-      </c>
-      <c r="H36">
-        <v>0.91863478305611035</v>
-      </c>
-      <c r="I36">
+      <c r="L36">
         <v>3310.1535898970228</v>
       </c>
-      <c r="J36">
-        <v>4.8688492259146038E-2</v>
-      </c>
-      <c r="K36">
-        <v>0.81039908892632218</v>
-      </c>
-      <c r="L36">
+      <c r="M36">
         <v>10862.332092354131</v>
-      </c>
-      <c r="M36">
-        <v>3.7823285546269063E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1923,28 +1923,28 @@
         <v>0.90526203026274155</v>
       </c>
       <c r="F37">
+        <v>0.2320323973120911</v>
+      </c>
+      <c r="G37">
+        <v>0.55741087823480817</v>
+      </c>
+      <c r="H37">
+        <v>1.1066607004485579E-2</v>
+      </c>
+      <c r="I37">
+        <v>0.96691114676674861</v>
+      </c>
+      <c r="J37">
+        <v>0.43491045175086868</v>
+      </c>
+      <c r="K37">
         <v>4199.533618927002</v>
       </c>
-      <c r="G37">
-        <v>0.2320323973120911</v>
-      </c>
-      <c r="H37">
-        <v>0.55741087823480817</v>
-      </c>
-      <c r="I37">
+      <c r="L37">
         <v>22372.21741104126</v>
       </c>
-      <c r="J37">
-        <v>1.1066607004485579E-2</v>
-      </c>
-      <c r="K37">
-        <v>0.96691114676674861</v>
-      </c>
-      <c r="L37">
+      <c r="M37">
         <v>926.91526794433594</v>
-      </c>
-      <c r="M37">
-        <v>0.43491045175086868</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1964,28 +1964,28 @@
         <v>0.89369751705129863</v>
       </c>
       <c r="F38">
+        <v>0.21473514156959439</v>
+      </c>
+      <c r="G38">
+        <v>0.90629830150856661</v>
+      </c>
+      <c r="H38">
+        <v>2.7698827971999879E-2</v>
+      </c>
+      <c r="I38">
+        <v>0.89484218388217018</v>
+      </c>
+      <c r="J38">
+        <v>0.2271040389483352</v>
+      </c>
+      <c r="K38">
         <v>4729.1672484543869</v>
       </c>
-      <c r="G38">
-        <v>0.21473514156959439</v>
-      </c>
-      <c r="H38">
-        <v>0.90629830150856661</v>
-      </c>
-      <c r="I38">
+      <c r="L38">
         <v>4107.1351215433669</v>
       </c>
-      <c r="J38">
-        <v>2.7698827971999879E-2</v>
-      </c>
-      <c r="K38">
-        <v>0.89484218388217018</v>
-      </c>
-      <c r="L38">
+      <c r="M38">
         <v>4402.2178347878598</v>
-      </c>
-      <c r="M38">
-        <v>0.2271040389483352</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2005,28 +2005,28 @@
         <v>0.94316978420770714</v>
       </c>
       <c r="F39">
+        <v>0.39626746206575719</v>
+      </c>
+      <c r="G39">
+        <v>0.94152261936405168</v>
+      </c>
+      <c r="H39">
+        <v>7.7408256880733949E-3</v>
+      </c>
+      <c r="I39">
+        <v>0.9599172094355034</v>
+      </c>
+      <c r="J39">
+        <v>0.42831989920364422</v>
+      </c>
+      <c r="K39">
         <v>1867.105071480539</v>
       </c>
-      <c r="G39">
-        <v>0.39626746206575719</v>
-      </c>
-      <c r="H39">
-        <v>0.94152261936405168</v>
-      </c>
-      <c r="I39">
+      <c r="L39">
         <v>2674.64656207083</v>
       </c>
-      <c r="J39">
-        <v>7.7408256880733949E-3</v>
-      </c>
-      <c r="K39">
-        <v>0.9599172094355034</v>
-      </c>
-      <c r="L39">
+      <c r="M39">
         <v>1473.1365876346811</v>
-      </c>
-      <c r="M39">
-        <v>0.42831989920364422</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2046,28 +2046,28 @@
         <v>0.94328304248918515</v>
       </c>
       <c r="F40">
+        <v>4.1119592875318058E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.8632221451695602</v>
+      </c>
+      <c r="H40">
+        <v>5.673338275265629E-2</v>
+      </c>
+      <c r="I40">
+        <v>0.99435287600084132</v>
+      </c>
+      <c r="J40">
+        <v>9.6566523605150209E-2</v>
+      </c>
+      <c r="K40">
         <v>2325.6344451904301</v>
       </c>
-      <c r="G40">
-        <v>4.1119592875318058E-2</v>
-      </c>
-      <c r="H40">
-        <v>0.8632221451695602</v>
-      </c>
-      <c r="I40">
+      <c r="L40">
         <v>4739.5898284912109</v>
       </c>
-      <c r="J40">
-        <v>5.673338275265629E-2</v>
-      </c>
-      <c r="K40">
-        <v>0.99435287600084132</v>
-      </c>
-      <c r="L40">
+      <c r="M40">
         <v>197.60757827758789</v>
-      </c>
-      <c r="M40">
-        <v>9.6566523605150209E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2087,28 +2087,28 @@
         <v>0.82015068472499197</v>
       </c>
       <c r="F41">
+        <v>7.6601172067122927E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.86357999703351851</v>
+      </c>
+      <c r="H41">
+        <v>0.14500414762284281</v>
+      </c>
+      <c r="I41">
+        <v>0.89830946133305289</v>
+      </c>
+      <c r="J41">
+        <v>0.14829417301578851</v>
+      </c>
+      <c r="K41">
         <v>9826.0224825858713</v>
       </c>
-      <c r="G41">
-        <v>7.6601172067122927E-2</v>
-      </c>
-      <c r="H41">
-        <v>0.86357999703351851</v>
-      </c>
-      <c r="I41">
+      <c r="L41">
         <v>4634.1516291544694</v>
       </c>
-      <c r="J41">
-        <v>0.14500414762284281</v>
-      </c>
-      <c r="K41">
-        <v>0.89830946133305289</v>
-      </c>
-      <c r="L41">
+      <c r="M41">
         <v>4209.3176499119591</v>
-      </c>
-      <c r="M41">
-        <v>0.14829417301578851</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2128,28 +2128,28 @@
         <v>0.96277233925457295</v>
       </c>
       <c r="F42">
+        <v>0.22245069632675951</v>
+      </c>
+      <c r="G42">
+        <v>0.93521077204551228</v>
+      </c>
+      <c r="H42">
+        <v>5.7511855514075269E-2</v>
+      </c>
+      <c r="I42">
+        <v>0.973526064353192</v>
+      </c>
+      <c r="J42">
+        <v>0.18764232579322909</v>
+      </c>
+      <c r="K42">
         <v>2059.277263641357</v>
       </c>
-      <c r="G42">
-        <v>0.22245069632675951</v>
-      </c>
-      <c r="H42">
-        <v>0.93521077204551228</v>
-      </c>
-      <c r="I42">
+      <c r="L42">
         <v>2298.5693321228032</v>
       </c>
-      <c r="J42">
-        <v>5.7511855514075269E-2</v>
-      </c>
-      <c r="K42">
-        <v>0.973526064353192</v>
-      </c>
-      <c r="L42">
+      <c r="M42">
         <v>1308.8470802307129</v>
-      </c>
-      <c r="M42">
-        <v>0.18764232579322909</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2169,28 +2169,28 @@
         <v>0.82811047291798978</v>
       </c>
       <c r="F43">
+        <v>2.5291232372777441E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.95002882405547717</v>
+      </c>
+      <c r="H43">
+        <v>1.161308596516074E-2</v>
+      </c>
+      <c r="I43">
+        <v>0.89272648547868538</v>
+      </c>
+      <c r="J43">
+        <v>4.9375096435735233E-2</v>
+      </c>
+      <c r="K43">
         <v>9442.8935966491699</v>
       </c>
-      <c r="G43">
-        <v>2.5291232372777441E-2</v>
-      </c>
-      <c r="H43">
-        <v>0.95002882405547717</v>
-      </c>
-      <c r="I43">
+      <c r="L43">
         <v>1709.9133453369141</v>
       </c>
-      <c r="J43">
-        <v>1.161308596516074E-2</v>
-      </c>
-      <c r="K43">
-        <v>0.89272648547868538</v>
-      </c>
-      <c r="L43">
+      <c r="M43">
         <v>4563.4884796142578</v>
-      </c>
-      <c r="M43">
-        <v>4.9375096435735233E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2210,28 +2210,28 @@
         <v>0.90536828287919757</v>
       </c>
       <c r="F44">
+        <v>0.31898770148876721</v>
+      </c>
+      <c r="G44">
+        <v>0.91432812763387505</v>
+      </c>
+      <c r="H44">
+        <v>0.1735927616302346</v>
+      </c>
+      <c r="I44">
+        <v>0.90599059947363847</v>
+      </c>
+      <c r="J44">
+        <v>0.32065939909598512</v>
+      </c>
+      <c r="K44">
         <v>3655.3341540879828</v>
       </c>
-      <c r="G44">
-        <v>0.31898770148876721</v>
-      </c>
-      <c r="H44">
-        <v>0.91432812763387505</v>
-      </c>
-      <c r="I44">
+      <c r="L44">
         <v>3491.3835463883252</v>
       </c>
-      <c r="J44">
-        <v>0.1735927616302346</v>
-      </c>
-      <c r="K44">
-        <v>0.90599059947363847</v>
-      </c>
-      <c r="L44">
+      <c r="M44">
         <v>3453.409582905952</v>
-      </c>
-      <c r="M44">
-        <v>0.32065939909598512</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2251,28 +2251,28 @@
         <v>0.60403604331868155</v>
       </c>
       <c r="F45">
+        <v>0.1136033409351154</v>
+      </c>
+      <c r="G45">
+        <v>0.92212811218781743</v>
+      </c>
+      <c r="H45">
+        <v>2.9086678301337991E-3</v>
+      </c>
+      <c r="I45">
+        <v>0.91508740441544456</v>
+      </c>
+      <c r="J45">
+        <v>0.42025036528057502</v>
+      </c>
+      <c r="K45">
         <v>22892.571743011471</v>
       </c>
-      <c r="G45">
-        <v>0.1136033409351154</v>
-      </c>
-      <c r="H45">
-        <v>0.92212811218781743</v>
-      </c>
-      <c r="I45">
+      <c r="L45">
         <v>3296.9495468139648</v>
       </c>
-      <c r="J45">
-        <v>2.9086678301337991E-3</v>
-      </c>
-      <c r="K45">
-        <v>0.91508740441544456</v>
-      </c>
-      <c r="L45">
+      <c r="M45">
         <v>3600.6871299743648</v>
-      </c>
-      <c r="M45">
-        <v>0.42025036528057502</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2292,28 +2292,28 @@
         <v>0.92003107635781123</v>
       </c>
       <c r="F46">
+        <v>0.54423581388927245</v>
+      </c>
+      <c r="G46">
+        <v>0.81959244752885263</v>
+      </c>
+      <c r="H46">
+        <v>0.15933783811538541</v>
+      </c>
+      <c r="I46">
+        <v>0.91798333478527616</v>
+      </c>
+      <c r="J46">
+        <v>0.52053139227941969</v>
+      </c>
+      <c r="K46">
         <v>2745.9701869575579</v>
       </c>
-      <c r="G46">
-        <v>0.54423581388927245</v>
-      </c>
-      <c r="H46">
-        <v>0.81959244752885263</v>
-      </c>
-      <c r="I46">
+      <c r="L46">
         <v>7103.3528567139629</v>
       </c>
-      <c r="J46">
-        <v>0.15933783811538541</v>
-      </c>
-      <c r="K46">
-        <v>0.91798333478527616</v>
-      </c>
-      <c r="L46">
+      <c r="M46">
         <v>2764.4717200328942</v>
-      </c>
-      <c r="M46">
-        <v>0.52053139227941969</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2333,28 +2333,28 @@
         <v>0.94025074501602446</v>
       </c>
       <c r="F47">
+        <v>0.24933307306916519</v>
+      </c>
+      <c r="G47">
+        <v>0.89421800975424459</v>
+      </c>
+      <c r="H47">
+        <v>2.4358590396326249E-2</v>
+      </c>
+      <c r="I47">
+        <v>0.95218938403282449</v>
+      </c>
+      <c r="J47">
+        <v>0.23899711399711401</v>
+      </c>
+      <c r="K47">
         <v>2817.2170600891109</v>
       </c>
-      <c r="G47">
-        <v>0.24933307306916519</v>
-      </c>
-      <c r="H47">
-        <v>0.89421800975424459</v>
-      </c>
-      <c r="I47">
+      <c r="L47">
         <v>4764.2038879394531</v>
       </c>
-      <c r="J47">
-        <v>2.4358590396326249E-2</v>
-      </c>
-      <c r="K47">
-        <v>0.95218938403282449</v>
-      </c>
-      <c r="L47">
+      <c r="M47">
         <v>2019.132934570312</v>
-      </c>
-      <c r="M47">
-        <v>0.23899711399711401</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2374,28 +2374,28 @@
         <v>0.91941546441401578</v>
       </c>
       <c r="F48">
+        <v>8.4640278815036094E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.24060471078622181</v>
+      </c>
+      <c r="H48">
+        <v>1.919459903696063E-3</v>
+      </c>
+      <c r="I48">
+        <v>0.97284000782063951</v>
+      </c>
+      <c r="J48">
+        <v>0.20193508114856429</v>
+      </c>
+      <c r="K48">
         <v>4535.835334777832</v>
       </c>
-      <c r="G48">
-        <v>8.4640278815036094E-2</v>
-      </c>
-      <c r="H48">
-        <v>0.24060471078622181</v>
-      </c>
-      <c r="I48">
+      <c r="L48">
         <v>44860.027420043953</v>
       </c>
-      <c r="J48">
-        <v>1.919459903696063E-3</v>
-      </c>
-      <c r="K48">
-        <v>0.97284000782063951</v>
-      </c>
-      <c r="L48">
+      <c r="M48">
         <v>1243.0421943664551</v>
-      </c>
-      <c r="M48">
-        <v>0.20193508114856429</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2415,28 +2415,28 @@
         <v>0.93026906515402863</v>
       </c>
       <c r="F49">
+        <v>0.15062839992496721</v>
+      </c>
+      <c r="G49">
+        <v>0.77372680084018708</v>
+      </c>
+      <c r="H49">
+        <v>0.18477032828690401</v>
+      </c>
+      <c r="I49">
+        <v>0.91559879017240342</v>
+      </c>
+      <c r="J49">
+        <v>0.1072705601907032</v>
+      </c>
+      <c r="K49">
         <v>2062.600936889648</v>
       </c>
-      <c r="G49">
-        <v>0.15062839992496721</v>
-      </c>
-      <c r="H49">
-        <v>0.77372680084018708</v>
-      </c>
-      <c r="I49">
+      <c r="L49">
         <v>6160.3175926208496</v>
       </c>
-      <c r="J49">
-        <v>0.18477032828690401</v>
-      </c>
-      <c r="K49">
-        <v>0.91559879017240342</v>
-      </c>
-      <c r="L49">
+      <c r="M49">
         <v>2788.8933563232422</v>
-      </c>
-      <c r="M49">
-        <v>0.1072705601907032</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2456,28 +2456,28 @@
         <v>0.93220424705474958</v>
       </c>
       <c r="F50">
+        <v>0.3684650274528527</v>
+      </c>
+      <c r="G50">
+        <v>0.86976871870747152</v>
+      </c>
+      <c r="H50">
+        <v>1.1946985252940081E-2</v>
+      </c>
+      <c r="I50">
+        <v>0.949164805381567</v>
+      </c>
+      <c r="J50">
+        <v>0.45034765555357459</v>
+      </c>
+      <c r="K50">
         <v>2525.6643333435059</v>
       </c>
-      <c r="G50">
-        <v>0.3684650274528527</v>
-      </c>
-      <c r="H50">
-        <v>0.86976871870747152</v>
-      </c>
-      <c r="I50">
+      <c r="L50">
         <v>5121.4262809753418</v>
       </c>
-      <c r="J50">
-        <v>1.1946985252940081E-2</v>
-      </c>
-      <c r="K50">
-        <v>0.949164805381567</v>
-      </c>
-      <c r="L50">
+      <c r="M50">
         <v>1406.0043754577639</v>
-      </c>
-      <c r="M50">
-        <v>0.45034765555357459</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2497,28 +2497,28 @@
         <v>0.85490539673600208</v>
       </c>
       <c r="F51">
+        <v>8.996518965119428E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.95697051973962843</v>
+      </c>
+      <c r="H51">
+        <v>1.3251879699248121E-2</v>
+      </c>
+      <c r="I51">
+        <v>0.91002889263344289</v>
+      </c>
+      <c r="J51">
+        <v>0.1212767432990048</v>
+      </c>
+      <c r="K51">
         <v>8058.4819716798429</v>
       </c>
-      <c r="G51">
-        <v>8.996518965119428E-2</v>
-      </c>
-      <c r="H51">
-        <v>0.95697051973962843</v>
-      </c>
-      <c r="I51">
+      <c r="L51">
         <v>1821.91998329178</v>
       </c>
-      <c r="J51">
-        <v>1.3251879699248121E-2</v>
-      </c>
-      <c r="K51">
-        <v>0.91002889263344289</v>
-      </c>
-      <c r="L51">
+      <c r="M51">
         <v>4478.0340512417461</v>
-      </c>
-      <c r="M51">
-        <v>0.1212767432990048</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2538,28 +2538,28 @@
         <v>0.93937252028015317</v>
       </c>
       <c r="F52">
+        <v>5.2089451742761771E-2</v>
+      </c>
+      <c r="G52">
+        <v>0.94144605647669144</v>
+      </c>
+      <c r="H52">
+        <v>0.15180394826412519</v>
+      </c>
+      <c r="I52">
+        <v>0.94886133296496933</v>
+      </c>
+      <c r="J52">
+        <v>6.8031144798529508E-2</v>
+      </c>
+      <c r="K52">
         <v>2920.5742598609072</v>
       </c>
-      <c r="G52">
-        <v>5.2089451742761771E-2</v>
-      </c>
-      <c r="H52">
-        <v>0.94144605647669144</v>
-      </c>
-      <c r="I52">
+      <c r="L52">
         <v>1977.976780933393</v>
       </c>
-      <c r="J52">
-        <v>0.15180394826412519</v>
-      </c>
-      <c r="K52">
-        <v>0.94886133296496933</v>
-      </c>
-      <c r="L52">
+      <c r="M52">
         <v>1980.560993589457</v>
-      </c>
-      <c r="M52">
-        <v>6.8031144798529508E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2579,28 +2579,28 @@
         <v>0.74865909676623177</v>
       </c>
       <c r="F53">
+        <v>2.104087912693791E-2</v>
+      </c>
+      <c r="G53">
+        <v>0.790054398756043</v>
+      </c>
+      <c r="H53">
+        <v>6.5682446721978205E-2</v>
+      </c>
+      <c r="I53">
+        <v>0.86020728422282311</v>
+      </c>
+      <c r="J53">
+        <v>4.9418390758466609E-2</v>
+      </c>
+      <c r="K53">
         <v>12631.49409681836</v>
       </c>
-      <c r="G53">
-        <v>2.104087912693791E-2</v>
-      </c>
-      <c r="H53">
-        <v>0.790054398756043</v>
-      </c>
-      <c r="I53">
+      <c r="L53">
         <v>8189.1904956886337</v>
       </c>
-      <c r="J53">
-        <v>6.5682446721978205E-2</v>
-      </c>
-      <c r="K53">
-        <v>0.86020728422282311</v>
-      </c>
-      <c r="L53">
+      <c r="M53">
         <v>6292.2293203148456</v>
-      </c>
-      <c r="M53">
-        <v>4.9418390758466609E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2620,28 +2620,28 @@
         <v>0.86421617190278133</v>
       </c>
       <c r="F54">
+        <v>0.109706324773422</v>
+      </c>
+      <c r="G54">
+        <v>0.73161697584738816</v>
+      </c>
+      <c r="H54">
+        <v>0.1058790145421039</v>
+      </c>
+      <c r="I54">
+        <v>0.88542343827301762</v>
+      </c>
+      <c r="J54">
+        <v>0.1299163437089563</v>
+      </c>
+      <c r="K54">
         <v>7257.360733347944</v>
       </c>
-      <c r="G54">
-        <v>0.109706324773422</v>
-      </c>
-      <c r="H54">
-        <v>0.73161697584738816</v>
-      </c>
-      <c r="I54">
+      <c r="L54">
         <v>12455.57097523927</v>
       </c>
-      <c r="J54">
-        <v>0.1058790145421039</v>
-      </c>
-      <c r="K54">
-        <v>0.88542343827301762</v>
-      </c>
-      <c r="L54">
+      <c r="M54">
         <v>5888.1299091559258</v>
-      </c>
-      <c r="M54">
-        <v>0.1299163437089563</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2661,28 +2661,28 @@
         <v>0.82299453828214564</v>
       </c>
       <c r="F55">
+        <v>2.544727435014504E-2</v>
+      </c>
+      <c r="G55">
+        <v>0.85173775348502412</v>
+      </c>
+      <c r="H55">
+        <v>7.2499965117414786E-2</v>
+      </c>
+      <c r="I55">
+        <v>0.85003336236618998</v>
+      </c>
+      <c r="J55">
+        <v>2.8150569229160819E-2</v>
+      </c>
+      <c r="K55">
         <v>9897.7513443177977</v>
       </c>
-      <c r="G55">
-        <v>2.544727435014504E-2</v>
-      </c>
-      <c r="H55">
-        <v>0.85173775348502412</v>
-      </c>
-      <c r="I55">
+      <c r="L55">
         <v>5897.2575346719595</v>
       </c>
-      <c r="J55">
-        <v>7.2499965117414786E-2</v>
-      </c>
-      <c r="K55">
-        <v>0.85003336236618998</v>
-      </c>
-      <c r="L55">
+      <c r="M55">
         <v>7837.614772484475</v>
-      </c>
-      <c r="M55">
-        <v>2.8150569229160819E-2</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2702,28 +2702,28 @@
         <v>0.82124748357495747</v>
       </c>
       <c r="F56">
+        <v>0.12616657418150631</v>
+      </c>
+      <c r="G56">
+        <v>0.89434271250514863</v>
+      </c>
+      <c r="H56">
+        <v>1.032131228113289E-2</v>
+      </c>
+      <c r="I56">
+        <v>0.85427577413658162</v>
+      </c>
+      <c r="J56">
+        <v>0.14605523788167579</v>
+      </c>
+      <c r="K56">
         <v>8481.5000610351563</v>
       </c>
-      <c r="G56">
-        <v>0.12616657418150631</v>
-      </c>
-      <c r="H56">
-        <v>0.89434271250514863</v>
-      </c>
-      <c r="I56">
+      <c r="L56">
         <v>3883.629558563232</v>
       </c>
-      <c r="J56">
-        <v>1.032131228113289E-2</v>
-      </c>
-      <c r="K56">
-        <v>0.85427577413658162</v>
-      </c>
-      <c r="L56">
+      <c r="M56">
         <v>5552.985408782959</v>
-      </c>
-      <c r="M56">
-        <v>0.14605523788167579</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2743,28 +2743,28 @@
         <v>0.94091532364454611</v>
       </c>
       <c r="F57">
+        <v>9.6729285749381722E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.94896675572562494</v>
+      </c>
+      <c r="H57">
+        <v>8.2431045676349249E-2</v>
+      </c>
+      <c r="I57">
+        <v>0.96242539739469757</v>
+      </c>
+      <c r="J57">
+        <v>0.15494668646241061</v>
+      </c>
+      <c r="K57">
         <v>2399.9553858932341</v>
       </c>
-      <c r="G57">
-        <v>9.6729285749381722E-2</v>
-      </c>
-      <c r="H57">
-        <v>0.94896675572562494</v>
-      </c>
-      <c r="I57">
+      <c r="L57">
         <v>1892.679574544972</v>
       </c>
-      <c r="J57">
-        <v>8.2431045676349249E-2</v>
-      </c>
-      <c r="K57">
-        <v>0.96242539739469757</v>
-      </c>
-      <c r="L57">
+      <c r="M57">
         <v>1336.6521736143411</v>
-      </c>
-      <c r="M57">
-        <v>0.15494668646241061</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2784,28 +2784,28 @@
         <v>0.96699590092038634</v>
       </c>
       <c r="F58">
+        <v>0.4384600171402202</v>
+      </c>
+      <c r="G58">
+        <v>0.98247706448578564</v>
+      </c>
+      <c r="H58">
+        <v>3.453038674033149E-3</v>
+      </c>
+      <c r="I58">
+        <v>0.96422049068963878</v>
+      </c>
+      <c r="J58">
+        <v>0.34951346137479078</v>
+      </c>
+      <c r="K58">
         <v>1263.610748436083</v>
       </c>
-      <c r="G58">
-        <v>0.4384600171402202</v>
-      </c>
-      <c r="H58">
-        <v>0.98247706448578564</v>
-      </c>
-      <c r="I58">
+      <c r="L58">
         <v>829.82919532702579</v>
       </c>
-      <c r="J58">
-        <v>3.453038674033149E-3</v>
-      </c>
-      <c r="K58">
-        <v>0.96422049068963878</v>
-      </c>
-      <c r="L58">
+      <c r="M58">
         <v>1697.8235063793149</v>
-      </c>
-      <c r="M58">
-        <v>0.34951346137479078</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2825,28 +2825,28 @@
         <v>0.79719700874811084</v>
       </c>
       <c r="F59">
+        <v>4.3018559695058307E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.6285209872338916</v>
+      </c>
+      <c r="H59">
+        <v>1.9373767008953411E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.91001417647543392</v>
+      </c>
+      <c r="J59">
+        <v>0.1251002405773857</v>
+      </c>
+      <c r="K59">
         <v>10404.57455825806</v>
       </c>
-      <c r="G59">
-        <v>4.3018559695058307E-2</v>
-      </c>
-      <c r="H59">
-        <v>0.6285209872338916</v>
-      </c>
-      <c r="I59">
+      <c r="L59">
         <v>19188.547527313229</v>
       </c>
-      <c r="J59">
-        <v>1.9373767008953411E-2</v>
-      </c>
-      <c r="K59">
-        <v>0.91001417647543392</v>
-      </c>
-      <c r="L59">
+      <c r="M59">
         <v>3187.445384979248</v>
-      </c>
-      <c r="M59">
-        <v>0.1251002405773857</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -2866,28 +2866,28 @@
         <v>0.94152981607951125</v>
       </c>
       <c r="F60">
+        <v>0.2470865523111169</v>
+      </c>
+      <c r="G60">
+        <v>0.87751764820756872</v>
+      </c>
+      <c r="H60">
+        <v>7.4401686438225929E-3</v>
+      </c>
+      <c r="I60">
+        <v>0.96002889472189501</v>
+      </c>
+      <c r="J60">
+        <v>0.29728046501972177</v>
+      </c>
+      <c r="K60">
         <v>2831.210865020752</v>
       </c>
-      <c r="G60">
-        <v>0.2470865523111169</v>
-      </c>
-      <c r="H60">
-        <v>0.87751764820756872</v>
-      </c>
-      <c r="I60">
+      <c r="L60">
         <v>5905.9353485107422</v>
       </c>
-      <c r="J60">
-        <v>7.4401686438225929E-3</v>
-      </c>
-      <c r="K60">
-        <v>0.96002889472189501</v>
-      </c>
-      <c r="L60">
+      <c r="M60">
         <v>1641.435245513916</v>
-      </c>
-      <c r="M60">
-        <v>0.29728046501972177</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -2907,28 +2907,28 @@
         <v>0.94689432074564805</v>
       </c>
       <c r="F61">
+        <v>0.1488814042005531</v>
+      </c>
+      <c r="G61">
+        <v>0.88092115608151367</v>
+      </c>
+      <c r="H61">
+        <v>0.10004873633642</v>
+      </c>
+      <c r="I61">
+        <v>0.93351715629619747</v>
+      </c>
+      <c r="J61">
+        <v>0.15650900847717769</v>
+      </c>
+      <c r="K61">
         <v>2723.5780686754551</v>
       </c>
-      <c r="G61">
-        <v>0.1488814042005531</v>
-      </c>
-      <c r="H61">
-        <v>0.88092115608151367</v>
-      </c>
-      <c r="I61">
+      <c r="L61">
         <v>4573.0824762241073</v>
       </c>
-      <c r="J61">
-        <v>0.10004873633642</v>
-      </c>
-      <c r="K61">
-        <v>0.93351715629619747</v>
-      </c>
-      <c r="L61">
+      <c r="M61">
         <v>3143.7131290744319</v>
-      </c>
-      <c r="M61">
-        <v>0.15650900847717769</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -2948,28 +2948,28 @@
         <v>0.80860938992559461</v>
       </c>
       <c r="F62">
+        <v>5.4941312688718873E-2</v>
+      </c>
+      <c r="G62">
+        <v>0.76732082821614445</v>
+      </c>
+      <c r="H62">
+        <v>4.2371883901038106E-3</v>
+      </c>
+      <c r="I62">
+        <v>0.98692760991191686</v>
+      </c>
+      <c r="J62">
+        <v>0.44430258538142348</v>
+      </c>
+      <c r="K62">
         <v>10335.527671813959</v>
       </c>
-      <c r="G62">
-        <v>5.4941312688718873E-2</v>
-      </c>
-      <c r="H62">
-        <v>0.76732082821614445</v>
-      </c>
-      <c r="I62">
+      <c r="L62">
         <v>10472.89911651611</v>
       </c>
-      <c r="J62">
-        <v>4.2371883901038106E-3</v>
-      </c>
-      <c r="K62">
-        <v>0.98692760991191686</v>
-      </c>
-      <c r="L62">
+      <c r="M62">
         <v>411.96314239501947</v>
-      </c>
-      <c r="M62">
-        <v>0.44430258538142348</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -2989,28 +2989,28 @@
         <v>0.91898427972643937</v>
       </c>
       <c r="F63">
+        <v>0.33613492939411949</v>
+      </c>
+      <c r="G63">
+        <v>0.97830403016168055</v>
+      </c>
+      <c r="H63">
+        <v>2.406891309855586E-3</v>
+      </c>
+      <c r="I63">
+        <v>0.91316319581418381</v>
+      </c>
+      <c r="J63">
+        <v>0.32116292958358222</v>
+      </c>
+      <c r="K63">
         <v>3477.6989906668741</v>
       </c>
-      <c r="G63">
-        <v>0.33613492939411949</v>
-      </c>
-      <c r="H63">
-        <v>0.97830403016168055</v>
-      </c>
-      <c r="I63">
+      <c r="L63">
         <v>1124.2478178437641</v>
       </c>
-      <c r="J63">
-        <v>2.406891309855586E-3</v>
-      </c>
-      <c r="K63">
-        <v>0.91316319581418381</v>
-      </c>
-      <c r="L63">
+      <c r="M63">
         <v>3706.5511032139289</v>
-      </c>
-      <c r="M63">
-        <v>0.32116292958358222</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3030,28 +3030,28 @@
         <v>0.9669075714966886</v>
       </c>
       <c r="F64">
+        <v>0.54987441693577321</v>
+      </c>
+      <c r="G64">
+        <v>0.97067428800068722</v>
+      </c>
+      <c r="H64">
+        <v>2.3890964584539279E-2</v>
+      </c>
+      <c r="I64">
+        <v>0.95545665426895054</v>
+      </c>
+      <c r="J64">
+        <v>0.45107577534657461</v>
+      </c>
+      <c r="K64">
         <v>1101.527821919565</v>
       </c>
-      <c r="G64">
-        <v>0.54987441693577321</v>
-      </c>
-      <c r="H64">
-        <v>0.97067428800068722</v>
-      </c>
-      <c r="I64">
+      <c r="L64">
         <v>1348.125896447184</v>
       </c>
-      <c r="J64">
-        <v>2.3890964584539279E-2</v>
-      </c>
-      <c r="K64">
-        <v>0.95545665426895054</v>
-      </c>
-      <c r="L64">
+      <c r="M64">
         <v>2127.477397624129</v>
-      </c>
-      <c r="M64">
-        <v>0.45107577534657461</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3071,28 +3071,28 @@
         <v>0.79051609239853537</v>
       </c>
       <c r="F65">
+        <v>0.14691541233835059</v>
+      </c>
+      <c r="G65">
+        <v>0.91847018328117247</v>
+      </c>
+      <c r="H65">
+        <v>6.1354779868999258E-3</v>
+      </c>
+      <c r="I65">
+        <v>0.90691458451294782</v>
+      </c>
+      <c r="J65">
+        <v>0.17936273475416761</v>
+      </c>
+      <c r="K65">
         <v>7867.0693130493164</v>
       </c>
-      <c r="G65">
-        <v>0.14691541233835059</v>
-      </c>
-      <c r="H65">
-        <v>0.91847018328117247</v>
-      </c>
-      <c r="I65">
+      <c r="L65">
         <v>2814.5967979431148</v>
       </c>
-      <c r="J65">
-        <v>6.1354779868999258E-3</v>
-      </c>
-      <c r="K65">
-        <v>0.90691458451294782</v>
-      </c>
-      <c r="L65">
+      <c r="M65">
         <v>2738.1738395690918</v>
-      </c>
-      <c r="M65">
-        <v>0.17936273475416761</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3112,28 +3112,28 @@
         <v>0.96910509700597391</v>
       </c>
       <c r="F66">
+        <v>0.43169041704798011</v>
+      </c>
+      <c r="G66">
+        <v>0.68146053269248097</v>
+      </c>
+      <c r="H66">
+        <v>1.0659353087536761E-2</v>
+      </c>
+      <c r="I66">
+        <v>0.99234609456563749</v>
+      </c>
+      <c r="J66">
+        <v>0.76023680315737541</v>
+      </c>
+      <c r="K66">
         <v>1071.1736221313481</v>
       </c>
-      <c r="G66">
-        <v>0.43169041704798011</v>
-      </c>
-      <c r="H66">
-        <v>0.68146053269248097</v>
-      </c>
-      <c r="I66">
+      <c r="L66">
         <v>17315.673801422119</v>
       </c>
-      <c r="J66">
-        <v>1.0659353087536761E-2</v>
-      </c>
-      <c r="K66">
-        <v>0.99234609456563749</v>
-      </c>
-      <c r="L66">
+      <c r="M66">
         <v>208.9367790222168</v>
-      </c>
-      <c r="M66">
-        <v>0.76023680315737541</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3153,28 +3153,28 @@
         <v>0.90722482091828305</v>
       </c>
       <c r="F67">
+        <v>0.13036099525384731</v>
+      </c>
+      <c r="G67">
+        <v>0.98935694631468885</v>
+      </c>
+      <c r="H67">
+        <v>7.9082641360221433E-4</v>
+      </c>
+      <c r="I67">
+        <v>0.98013944083638238</v>
+      </c>
+      <c r="J67">
+        <v>0.4228476362123943</v>
+      </c>
+      <c r="K67">
         <v>4496.4687033458204</v>
       </c>
-      <c r="G67">
-        <v>0.13036099525384731</v>
-      </c>
-      <c r="H67">
-        <v>0.98935694631468885</v>
-      </c>
-      <c r="I67">
+      <c r="L67">
         <v>543.34598167263539</v>
       </c>
-      <c r="J67">
-        <v>7.9082641360221433E-4</v>
-      </c>
-      <c r="K67">
-        <v>0.98013944083638238</v>
-      </c>
-      <c r="L67">
+      <c r="M67">
         <v>603.66415172969653</v>
-      </c>
-      <c r="M67">
-        <v>0.4228476362123943</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3194,28 +3194,28 @@
         <v>0.94927372907167851</v>
       </c>
       <c r="F68">
+        <v>0.59922306724298302</v>
+      </c>
+      <c r="G68">
+        <v>0.9636740109236509</v>
+      </c>
+      <c r="H68">
+        <v>6.2684228200440284E-3</v>
+      </c>
+      <c r="I68">
+        <v>0.9255789194871773</v>
+      </c>
+      <c r="J68">
+        <v>0.50839070836821654</v>
+      </c>
+      <c r="K68">
         <v>1606.097320046528</v>
       </c>
-      <c r="G68">
-        <v>0.59922306724298302</v>
-      </c>
-      <c r="H68">
-        <v>0.9636740109236509</v>
-      </c>
-      <c r="I68">
+      <c r="L68">
         <v>1938.7124385195229</v>
       </c>
-      <c r="J68">
-        <v>6.2684228200440284E-3</v>
-      </c>
-      <c r="K68">
-        <v>0.9255789194871773</v>
-      </c>
-      <c r="L68">
+      <c r="M68">
         <v>2927.485851475989</v>
-      </c>
-      <c r="M68">
-        <v>0.50839070836821654</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3235,28 +3235,28 @@
         <v>0.96067275811037567</v>
       </c>
       <c r="F69">
+        <v>0.51209916464564809</v>
+      </c>
+      <c r="G69">
+        <v>0.97843073018289728</v>
+      </c>
+      <c r="H69">
+        <v>1.841741761494442E-3</v>
+      </c>
+      <c r="I69">
+        <v>0.95992685573671543</v>
+      </c>
+      <c r="J69">
+        <v>0.47878690849209798</v>
+      </c>
+      <c r="K69">
         <v>1327.605175122045</v>
       </c>
-      <c r="G69">
-        <v>0.51209916464564809</v>
-      </c>
-      <c r="H69">
-        <v>0.97843073018289728</v>
-      </c>
-      <c r="I69">
+      <c r="L69">
         <v>1090.313184070488</v>
       </c>
-      <c r="J69">
-        <v>1.841741761494442E-3</v>
-      </c>
-      <c r="K69">
-        <v>0.95992685573671543</v>
-      </c>
-      <c r="L69">
+      <c r="M69">
         <v>1675.2242949780641</v>
-      </c>
-      <c r="M69">
-        <v>0.47878690849209798</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3276,28 +3276,28 @@
         <v>0.7931720551400927</v>
       </c>
       <c r="F70">
+        <v>1.196375576475615E-2</v>
+      </c>
+      <c r="G70">
+        <v>0.96796819306900117</v>
+      </c>
+      <c r="H70">
+        <v>2.8533305963255672E-2</v>
+      </c>
+      <c r="I70">
+        <v>0.93820307759988664</v>
+      </c>
+      <c r="J70">
+        <v>4.0235738016929062E-2</v>
+      </c>
+      <c r="K70">
         <v>11882.783240006331</v>
       </c>
-      <c r="G70">
-        <v>1.196375576475615E-2</v>
-      </c>
-      <c r="H70">
-        <v>0.96796819306900117</v>
-      </c>
-      <c r="I70">
+      <c r="L70">
         <v>1044.5681920587199</v>
       </c>
-      <c r="J70">
-        <v>2.8533305963255672E-2</v>
-      </c>
-      <c r="K70">
-        <v>0.93820307759988664</v>
-      </c>
-      <c r="L70">
+      <c r="M70">
         <v>3201.3297550338111</v>
-      </c>
-      <c r="M70">
-        <v>4.0235738016929062E-2</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3317,28 +3317,28 @@
         <v>0.84595871296352632</v>
       </c>
       <c r="F71">
+        <v>0.14316008636644051</v>
+      </c>
+      <c r="G71">
+        <v>0.98212729211018668</v>
+      </c>
+      <c r="H71">
+        <v>2.8433773003712189E-2</v>
+      </c>
+      <c r="I71">
+        <v>0.922555319723389</v>
+      </c>
+      <c r="J71">
+        <v>0.28604369849550171</v>
+      </c>
+      <c r="K71">
         <v>6601.5620059808944</v>
       </c>
-      <c r="G71">
-        <v>0.14316008636644051</v>
-      </c>
-      <c r="H71">
-        <v>0.98212729211018668</v>
-      </c>
-      <c r="I71">
+      <c r="L71">
         <v>883.95727736510935</v>
       </c>
-      <c r="J71">
-        <v>2.8433773003712189E-2</v>
-      </c>
-      <c r="K71">
-        <v>0.922555319723389</v>
-      </c>
-      <c r="L71">
+      <c r="M71">
         <v>2792.5770177503409</v>
-      </c>
-      <c r="M71">
-        <v>0.28604369849550171</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3358,28 +3358,28 @@
         <v>0.97647423342296713</v>
       </c>
       <c r="F72">
+        <v>0.50328015506187562</v>
+      </c>
+      <c r="G72">
+        <v>0.84665027853474861</v>
+      </c>
+      <c r="H72">
+        <v>5.1674375578168362E-2</v>
+      </c>
+      <c r="I72">
+        <v>0.97780567861672407</v>
+      </c>
+      <c r="J72">
+        <v>0.54791929382093318</v>
+      </c>
+      <c r="K72">
         <v>825.86150005373111</v>
       </c>
-      <c r="G72">
-        <v>0.50328015506187562</v>
-      </c>
-      <c r="H72">
-        <v>0.84665027853474861</v>
-      </c>
-      <c r="I72">
+      <c r="L72">
         <v>6602.9454619086091</v>
       </c>
-      <c r="J72">
-        <v>5.1674375578168362E-2</v>
-      </c>
-      <c r="K72">
-        <v>0.97780567861672407</v>
-      </c>
-      <c r="L72">
+      <c r="M72">
         <v>698.87505024855625</v>
-      </c>
-      <c r="M72">
-        <v>0.54791929382093318</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3399,28 +3399,28 @@
         <v>0.75055022635104662</v>
       </c>
       <c r="F73">
+        <v>4.5285282737599269E-2</v>
+      </c>
+      <c r="G73">
+        <v>0.65402640945452351</v>
+      </c>
+      <c r="H73">
+        <v>1.1855639040511521E-2</v>
+      </c>
+      <c r="I73">
+        <v>0.8674175815643399</v>
+      </c>
+      <c r="J73">
+        <v>9.3580047451546633E-2</v>
+      </c>
+      <c r="K73">
         <v>14076.29883736348</v>
       </c>
-      <c r="G73">
-        <v>4.5285282737599269E-2</v>
-      </c>
-      <c r="H73">
-        <v>0.65402640945452351</v>
-      </c>
-      <c r="I73">
+      <c r="L73">
         <v>13918.15574437798</v>
       </c>
-      <c r="J73">
-        <v>1.1855639040511521E-2</v>
-      </c>
-      <c r="K73">
-        <v>0.8674175815643399</v>
-      </c>
-      <c r="L73">
+      <c r="M73">
         <v>6365.9742637081936</v>
-      </c>
-      <c r="M73">
-        <v>9.3580047451546633E-2</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3440,28 +3440,28 @@
         <v>0.94806463710887745</v>
       </c>
       <c r="F74">
+        <v>2.193471892872088E-2</v>
+      </c>
+      <c r="G74">
+        <v>0.76278747017204918</v>
+      </c>
+      <c r="H74">
+        <v>9.3894068711679483E-6</v>
+      </c>
+      <c r="I74">
+        <v>0.91926901383444093</v>
+      </c>
+      <c r="J74">
+        <v>1.5916387731402418E-2</v>
+      </c>
+      <c r="K74">
         <v>2717.4086029996811</v>
       </c>
-      <c r="G74">
-        <v>2.193471892872088E-2</v>
-      </c>
-      <c r="H74">
-        <v>0.76278747017204918</v>
-      </c>
-      <c r="I74">
+      <c r="L74">
         <v>10318.7310955422</v>
       </c>
-      <c r="J74">
-        <v>9.3894068711679483E-6</v>
-      </c>
-      <c r="K74">
-        <v>0.91926901383444093</v>
-      </c>
-      <c r="L74">
+      <c r="M74">
         <v>4187.2915108368179</v>
-      </c>
-      <c r="M74">
-        <v>1.5916387731402418E-2</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3481,28 +3481,28 @@
         <v>0.86866470492624381</v>
       </c>
       <c r="F75">
+        <v>0.13910275774164321</v>
+      </c>
+      <c r="G75">
+        <v>0.95799315521510631</v>
+      </c>
+      <c r="H75">
+        <v>4.5279626976770307E-2</v>
+      </c>
+      <c r="I75">
+        <v>0.95191884261299331</v>
+      </c>
+      <c r="J75">
+        <v>0.38804098750486399</v>
+      </c>
+      <c r="K75">
         <v>5219.928244654503</v>
       </c>
-      <c r="G75">
-        <v>0.13910275774164321</v>
-      </c>
-      <c r="H75">
-        <v>0.95799315521510631</v>
-      </c>
-      <c r="I75">
+      <c r="L75">
         <v>1518.397058611363</v>
       </c>
-      <c r="J75">
-        <v>4.5279626976770307E-2</v>
-      </c>
-      <c r="K75">
-        <v>0.95191884261299331</v>
-      </c>
-      <c r="L75">
+      <c r="M75">
         <v>1264.608665602708</v>
-      </c>
-      <c r="M75">
-        <v>0.38804098750486399</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3522,28 +3522,28 @@
         <v>0.89823034757866549</v>
       </c>
       <c r="F76">
+        <v>9.8560964205932772E-2</v>
+      </c>
+      <c r="G76">
+        <v>0.96932788765936262</v>
+      </c>
+      <c r="H76">
+        <v>3.1437242237958143E-2</v>
+      </c>
+      <c r="I76">
+        <v>0.95015089526435292</v>
+      </c>
+      <c r="J76">
+        <v>0.20036351972629099</v>
+      </c>
+      <c r="K76">
         <v>3875.8013006579549</v>
       </c>
-      <c r="G76">
-        <v>9.8560964205932772E-2</v>
-      </c>
-      <c r="H76">
-        <v>0.96932788765936262</v>
-      </c>
-      <c r="I76">
+      <c r="L76">
         <v>1112.094394570928</v>
       </c>
-      <c r="J76">
-        <v>3.1437242237958143E-2</v>
-      </c>
-      <c r="K76">
-        <v>0.95015089526435292</v>
-      </c>
-      <c r="L76">
+      <c r="M76">
         <v>1670.553944122272</v>
-      </c>
-      <c r="M76">
-        <v>0.20036351972629099</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3563,28 +3563,28 @@
         <v>0.91259562881582179</v>
       </c>
       <c r="F77">
+        <v>7.9821947263193638E-2</v>
+      </c>
+      <c r="G77">
+        <v>0.82157240550065547</v>
+      </c>
+      <c r="H77">
+        <v>2.3535439795046971E-2</v>
+      </c>
+      <c r="I77">
+        <v>0.91410573869892608</v>
+      </c>
+      <c r="J77">
+        <v>8.2051070924978639E-2</v>
+      </c>
+      <c r="K77">
         <v>4358.8525053054782</v>
       </c>
-      <c r="G77">
-        <v>7.9821947263193638E-2</v>
-      </c>
-      <c r="H77">
-        <v>0.82157240550065547</v>
-      </c>
-      <c r="I77">
+      <c r="L77">
         <v>7662.1668747178946</v>
       </c>
-      <c r="J77">
-        <v>2.3535439795046971E-2</v>
-      </c>
-      <c r="K77">
-        <v>0.91410573869892608</v>
-      </c>
-      <c r="L77">
+      <c r="M77">
         <v>3984.2678062423611</v>
-      </c>
-      <c r="M77">
-        <v>8.2051070924978639E-2</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3604,28 +3604,28 @@
         <v>0.70935112249041399</v>
       </c>
       <c r="F78">
+        <v>0.13675475121236011</v>
+      </c>
+      <c r="G78">
+        <v>0.93377652936673394</v>
+      </c>
+      <c r="H78">
+        <v>3.1135985264425629E-2</v>
+      </c>
+      <c r="I78">
+        <v>0.91706235662994962</v>
+      </c>
+      <c r="J78">
+        <v>0.4632983794089609</v>
+      </c>
+      <c r="K78">
         <v>14624.17084085902</v>
       </c>
-      <c r="G78">
-        <v>0.13675475121236011</v>
-      </c>
-      <c r="H78">
-        <v>0.93377652936673394</v>
-      </c>
-      <c r="I78">
+      <c r="L78">
         <v>2443.8021917172018</v>
       </c>
-      <c r="J78">
-        <v>3.1135985264425629E-2</v>
-      </c>
-      <c r="K78">
-        <v>0.91706235662994962</v>
-      </c>
-      <c r="L78">
+      <c r="M78">
         <v>2464.7985910683851</v>
-      </c>
-      <c r="M78">
-        <v>0.4632983794089609</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3645,28 +3645,28 @@
         <v>0.80235706519998407</v>
       </c>
       <c r="F79">
+        <v>9.840258562559584E-2</v>
+      </c>
+      <c r="G79">
+        <v>0.96478070560524687</v>
+      </c>
+      <c r="H79">
+        <v>2.3783649517185701E-2</v>
+      </c>
+      <c r="I79">
+        <v>0.91052755744214853</v>
+      </c>
+      <c r="J79">
+        <v>0.231427049356524</v>
+      </c>
+      <c r="K79">
         <v>10393.217678835321</v>
       </c>
-      <c r="G79">
-        <v>9.840258562559584E-2</v>
-      </c>
-      <c r="H79">
-        <v>0.96478070560524687</v>
-      </c>
-      <c r="I79">
+      <c r="L79">
         <v>1404.5697702138889</v>
       </c>
-      <c r="J79">
-        <v>2.3783649517185701E-2</v>
-      </c>
-      <c r="K79">
-        <v>0.91052755744214853</v>
-      </c>
-      <c r="L79">
+      <c r="M79">
         <v>3673.6997886052959</v>
-      </c>
-      <c r="M79">
-        <v>0.231427049356524</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3686,28 +3686,28 @@
         <v>0.94633114684558428</v>
       </c>
       <c r="F80">
+        <v>6.6206058765469589E-2</v>
+      </c>
+      <c r="G80">
+        <v>0.94866009230902582</v>
+      </c>
+      <c r="H80">
+        <v>9.3651559440360976E-3</v>
+      </c>
+      <c r="I80">
+        <v>0.94470684550322581</v>
+      </c>
+      <c r="J80">
+        <v>6.2406122594950292E-2</v>
+      </c>
+      <c r="K80">
         <v>2197.742260597387</v>
       </c>
-      <c r="G80">
-        <v>6.6206058765469589E-2</v>
-      </c>
-      <c r="H80">
-        <v>0.94866009230902582</v>
-      </c>
-      <c r="I80">
+      <c r="L80">
         <v>1559.4070471313321</v>
       </c>
-      <c r="J80">
-        <v>9.3651559440360976E-3</v>
-      </c>
-      <c r="K80">
-        <v>0.94470684550322581</v>
-      </c>
-      <c r="L80">
+      <c r="M80">
         <v>2342.3940501700022</v>
-      </c>
-      <c r="M80">
-        <v>6.2406122594950292E-2</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3727,28 +3727,28 @@
         <v>0.86654076607010966</v>
       </c>
       <c r="F81">
+        <v>5.2910052910052907E-2</v>
+      </c>
+      <c r="G81">
+        <v>0.96323750585222545</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0.9570981022791919</v>
+      </c>
+      <c r="J81">
+        <v>0.1756126599861097</v>
+      </c>
+      <c r="K81">
         <v>7858.9900016784668</v>
       </c>
-      <c r="G81">
-        <v>5.2910052910052907E-2</v>
-      </c>
-      <c r="H81">
-        <v>0.96323750585222545</v>
-      </c>
-      <c r="I81">
+      <c r="L81">
         <v>1432.492733001709</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0.9570981022791919</v>
-      </c>
-      <c r="L81">
+      <c r="M81">
         <v>2061.0531806945801</v>
-      </c>
-      <c r="M81">
-        <v>0.1756126599861097</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3768,28 +3768,28 @@
         <v>0.75575814747745751</v>
       </c>
       <c r="F82">
+        <v>0.10233759001683269</v>
+      </c>
+      <c r="G82">
+        <v>0.79101883590732103</v>
+      </c>
+      <c r="H82">
+        <v>1.9091233844189769E-2</v>
+      </c>
+      <c r="I82">
+        <v>0.87991927877291887</v>
+      </c>
+      <c r="J82">
+        <v>0.21933592136780369</v>
+      </c>
+      <c r="K82">
         <v>12674.141419415469</v>
       </c>
-      <c r="G82">
-        <v>0.10233759001683269</v>
-      </c>
-      <c r="H82">
-        <v>0.79101883590732103</v>
-      </c>
-      <c r="I82">
+      <c r="L82">
         <v>7482.7146700504472</v>
       </c>
-      <c r="J82">
-        <v>1.9091233844189769E-2</v>
-      </c>
-      <c r="K82">
-        <v>0.87991927877291887</v>
-      </c>
-      <c r="L82">
+      <c r="M82">
         <v>5066.7438757710888</v>
-      </c>
-      <c r="M82">
-        <v>0.21933592136780369</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3809,28 +3809,28 @@
         <v>0.8401413814946499</v>
       </c>
       <c r="F83">
+        <v>8.2162505962792176E-2</v>
+      </c>
+      <c r="G83">
+        <v>0.88936532713850946</v>
+      </c>
+      <c r="H83">
+        <v>1.1563583406692529E-2</v>
+      </c>
+      <c r="I83">
+        <v>0.92226837572332132</v>
+      </c>
+      <c r="J83">
+        <v>0.19131502868527089</v>
+      </c>
+      <c r="K83">
         <v>6446.6540450448656</v>
       </c>
-      <c r="G83">
-        <v>8.2162505962792176E-2</v>
-      </c>
-      <c r="H83">
-        <v>0.88936532713850946</v>
-      </c>
-      <c r="I83">
+      <c r="L83">
         <v>4062.9819672142412</v>
       </c>
-      <c r="J83">
-        <v>1.1563583406692529E-2</v>
-      </c>
-      <c r="K83">
-        <v>0.92226837572332132</v>
-      </c>
-      <c r="L83">
+      <c r="M83">
         <v>2411.7715144091221</v>
-      </c>
-      <c r="M83">
-        <v>0.19131502868527089</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3850,28 +3850,28 @@
         <v>0.98147380358630443</v>
       </c>
       <c r="F84">
+        <v>0.51650090415913197</v>
+      </c>
+      <c r="G84">
+        <v>0.96372755028250723</v>
+      </c>
+      <c r="H84">
+        <v>1.274506128875061E-2</v>
+      </c>
+      <c r="I84">
+        <v>0.98335931665791432</v>
+      </c>
+      <c r="J84">
+        <v>0.54439714611187717</v>
+      </c>
+      <c r="K84">
         <v>382.2238145717385</v>
       </c>
-      <c r="G84">
-        <v>0.51650090415913197</v>
-      </c>
-      <c r="H84">
-        <v>0.96372755028250723</v>
-      </c>
-      <c r="I84">
+      <c r="L84">
         <v>1176.5578078980691</v>
       </c>
-      <c r="J84">
-        <v>1.274506128875061E-2</v>
-      </c>
-      <c r="K84">
-        <v>0.98335931665791432</v>
-      </c>
-      <c r="L84">
+      <c r="M84">
         <v>339.47157163752229</v>
-      </c>
-      <c r="M84">
-        <v>0.54439714611187717</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3891,28 +3891,28 @@
         <v>0.94921062584160265</v>
       </c>
       <c r="F85">
+        <v>0.24773348683263779</v>
+      </c>
+      <c r="G85">
+        <v>0.97090807160566872</v>
+      </c>
+      <c r="H85">
+        <v>1.7156337122024451E-3</v>
+      </c>
+      <c r="I85">
+        <v>0.95719774748664366</v>
+      </c>
+      <c r="J85">
+        <v>0.32177453320230243</v>
+      </c>
+      <c r="K85">
         <v>1868.2328103541499</v>
       </c>
-      <c r="G85">
-        <v>0.24773348683263779</v>
-      </c>
-      <c r="H85">
-        <v>0.97090807160566872</v>
-      </c>
-      <c r="I85">
+      <c r="L85">
         <v>1039.7684997846211</v>
       </c>
-      <c r="J85">
-        <v>1.7156337122024451E-3</v>
-      </c>
-      <c r="K85">
-        <v>0.95719774748664366</v>
-      </c>
-      <c r="L85">
+      <c r="M85">
         <v>1294.897088496542</v>
-      </c>
-      <c r="M85">
-        <v>0.32177453320230243</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -3932,28 +3932,28 @@
         <v>0.85389971453108404</v>
       </c>
       <c r="F86">
+        <v>2.2878975165748959E-2</v>
+      </c>
+      <c r="G86">
+        <v>0.95797517053047854</v>
+      </c>
+      <c r="H86">
+        <v>3.7071362372567188E-3</v>
+      </c>
+      <c r="I86">
+        <v>0.90358982254692155</v>
+      </c>
+      <c r="J86">
+        <v>4.1007259803772671E-2</v>
+      </c>
+      <c r="K86">
         <v>7769.0251454583804</v>
       </c>
-      <c r="G86">
-        <v>2.2878975165748959E-2</v>
-      </c>
-      <c r="H86">
-        <v>0.95797517053047854</v>
-      </c>
-      <c r="I86">
+      <c r="L86">
         <v>1248.615663543723</v>
       </c>
-      <c r="J86">
-        <v>3.7071362372567188E-3</v>
-      </c>
-      <c r="K86">
-        <v>0.90358982254692155</v>
-      </c>
-      <c r="L86">
+      <c r="M86">
         <v>4231.1318547841374</v>
-      </c>
-      <c r="M86">
-        <v>4.1007259803772671E-2</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -3973,28 +3973,28 @@
         <v>0.89213385549228974</v>
       </c>
       <c r="F87">
+        <v>1.9216555801921661E-2</v>
+      </c>
+      <c r="G87">
+        <v>0.9610213833696718</v>
+      </c>
+      <c r="H87">
+        <v>1.6114412327525428E-2</v>
+      </c>
+      <c r="I87">
+        <v>0.94138170355413264</v>
+      </c>
+      <c r="J87">
+        <v>3.9672944769661489E-2</v>
+      </c>
+      <c r="K87">
         <v>5691.0070343528414</v>
       </c>
-      <c r="G87">
-        <v>1.9216555801921661E-2</v>
-      </c>
-      <c r="H87">
-        <v>0.9610213833696718</v>
-      </c>
-      <c r="I87">
+      <c r="L87">
         <v>1309.237182521498</v>
       </c>
-      <c r="J87">
-        <v>1.6114412327525428E-2</v>
-      </c>
-      <c r="K87">
-        <v>0.94138170355413264</v>
-      </c>
-      <c r="L87">
+      <c r="M87">
         <v>2696.9204868742231</v>
-      </c>
-      <c r="M87">
-        <v>3.9672944769661489E-2</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4014,28 +4014,28 @@
         <v>0.93753300846966692</v>
       </c>
       <c r="F88">
+        <v>0.1407236380640636</v>
+      </c>
+      <c r="G88">
+        <v>0.88949723056485175</v>
+      </c>
+      <c r="H88">
+        <v>5.2172240521241552E-3</v>
+      </c>
+      <c r="I88">
+        <v>0.95407002445288303</v>
+      </c>
+      <c r="J88">
+        <v>0.26881269734819913</v>
+      </c>
+      <c r="K88">
         <v>2626.8729247834699</v>
       </c>
-      <c r="G88">
-        <v>0.1407236380640636</v>
-      </c>
-      <c r="H88">
-        <v>0.88949723056485175</v>
-      </c>
-      <c r="I88">
+      <c r="L88">
         <v>3696.7958278915971</v>
       </c>
-      <c r="J88">
-        <v>5.2172240521241552E-3</v>
-      </c>
-      <c r="K88">
-        <v>0.95407002445288303</v>
-      </c>
-      <c r="L88">
+      <c r="M88">
         <v>1168.963365579556</v>
-      </c>
-      <c r="M88">
-        <v>0.26881269734819913</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4055,28 +4055,28 @@
         <v>0.8114009886040211</v>
       </c>
       <c r="F89">
+        <v>0.26306906126766588</v>
+      </c>
+      <c r="G89">
+        <v>0.91800637544207553</v>
+      </c>
+      <c r="H89">
+        <v>7.2650268773415856E-3</v>
+      </c>
+      <c r="I89">
+        <v>0.89651838008806095</v>
+      </c>
+      <c r="J89">
+        <v>0.42632238949495482</v>
+      </c>
+      <c r="K89">
         <v>8465.1227937352414</v>
       </c>
-      <c r="G89">
-        <v>0.26306906126766588</v>
-      </c>
-      <c r="H89">
-        <v>0.91800637544207553</v>
-      </c>
-      <c r="I89">
+      <c r="L89">
         <v>2722.562897996731</v>
       </c>
-      <c r="J89">
-        <v>7.2650268773415856E-3</v>
-      </c>
-      <c r="K89">
-        <v>0.89651838008806095</v>
-      </c>
-      <c r="L89">
+      <c r="M89">
         <v>3944.3299742850058</v>
-      </c>
-      <c r="M89">
-        <v>0.42632238949495482</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4096,28 +4096,28 @@
         <v>0.93716363533755476</v>
       </c>
       <c r="F90">
+        <v>0.28494539537503522</v>
+      </c>
+      <c r="G90">
+        <v>0.92085630218613934</v>
+      </c>
+      <c r="H90">
+        <v>1.0370549018932281E-2</v>
+      </c>
+      <c r="I90">
+        <v>0.93193426401062873</v>
+      </c>
+      <c r="J90">
+        <v>0.3019194592884849</v>
+      </c>
+      <c r="K90">
         <v>2041.6541343568949</v>
       </c>
-      <c r="G90">
-        <v>0.28494539537503522</v>
-      </c>
-      <c r="H90">
-        <v>0.92085630218613934</v>
-      </c>
-      <c r="I90">
+      <c r="L90">
         <v>2566.3407521859122</v>
       </c>
-      <c r="J90">
-        <v>1.0370549018932281E-2</v>
-      </c>
-      <c r="K90">
-        <v>0.93193426401062873</v>
-      </c>
-      <c r="L90">
+      <c r="M90">
         <v>1873.280880836455</v>
-      </c>
-      <c r="M90">
-        <v>0.3019194592884849</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4137,28 +4137,28 @@
         <v>0.90786427752698184</v>
       </c>
       <c r="F91">
+        <v>0.56424391164810273</v>
+      </c>
+      <c r="G91">
+        <v>0.92078635319391822</v>
+      </c>
+      <c r="H91">
+        <v>2.2306484110993001E-2</v>
+      </c>
+      <c r="I91">
+        <v>0.93217436907574236</v>
+      </c>
+      <c r="J91">
+        <v>0.66758291439111717</v>
+      </c>
+      <c r="K91">
         <v>2577.8664352340079</v>
       </c>
-      <c r="G91">
-        <v>0.56424391164810273</v>
-      </c>
-      <c r="H91">
-        <v>0.92078635319391822</v>
-      </c>
-      <c r="I91">
+      <c r="L91">
         <v>2752.9853404608912</v>
       </c>
-      <c r="J91">
-        <v>2.2306484110993001E-2</v>
-      </c>
-      <c r="K91">
-        <v>0.93217436907574236</v>
-      </c>
-      <c r="L91">
+      <c r="M91">
         <v>1642.3651611635571</v>
-      </c>
-      <c r="M91">
-        <v>0.66758291439111717</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4178,28 +4178,28 @@
         <v>0.9113709852773475</v>
       </c>
       <c r="F92">
+        <v>0.42041908158716013</v>
+      </c>
+      <c r="G92">
+        <v>0.90598029913330314</v>
+      </c>
+      <c r="H92">
+        <v>1.6987743633633149E-2</v>
+      </c>
+      <c r="I92">
+        <v>0.92157841931936035</v>
+      </c>
+      <c r="J92">
+        <v>0.46472243903592803</v>
+      </c>
+      <c r="K92">
         <v>2439.1561799458768</v>
       </c>
-      <c r="G92">
-        <v>0.42041908158716013</v>
-      </c>
-      <c r="H92">
-        <v>0.90598029913330314</v>
-      </c>
-      <c r="I92">
+      <c r="L92">
         <v>2719.4804478792171</v>
       </c>
-      <c r="J92">
-        <v>1.6987743633633149E-2</v>
-      </c>
-      <c r="K92">
-        <v>0.92157841931936035</v>
-      </c>
-      <c r="L92">
+      <c r="M92">
         <v>2021.99793070898</v>
-      </c>
-      <c r="M92">
-        <v>0.46472243903592803</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4219,28 +4219,28 @@
         <v>0.89128055019228447</v>
       </c>
       <c r="F93">
+        <v>0.2023565069141883</v>
+      </c>
+      <c r="G93">
+        <v>0.68582690724628359</v>
+      </c>
+      <c r="H93">
+        <v>6.4548110491177372E-3</v>
+      </c>
+      <c r="I93">
+        <v>0.8789044026032965</v>
+      </c>
+      <c r="J93">
+        <v>0.1976056776258279</v>
+      </c>
+      <c r="K93">
         <v>4702.7020495736724</v>
       </c>
-      <c r="G93">
-        <v>0.2023565069141883</v>
-      </c>
-      <c r="H93">
-        <v>0.68582690724628359</v>
-      </c>
-      <c r="I93">
+      <c r="L93">
         <v>12624.777544345139</v>
       </c>
-      <c r="J93">
-        <v>6.4548110491177372E-3</v>
-      </c>
-      <c r="K93">
-        <v>0.8789044026032965</v>
-      </c>
-      <c r="L93">
+      <c r="M93">
         <v>4838.6425670750514</v>
-      </c>
-      <c r="M93">
-        <v>0.1976056776258279</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4260,28 +4260,28 @@
         <v>0.79411176382766491</v>
       </c>
       <c r="F94">
+        <v>6.8828239438518291E-2</v>
+      </c>
+      <c r="G94">
+        <v>0.94917185370787205</v>
+      </c>
+      <c r="H94">
+        <v>7.0521861777150916E-4</v>
+      </c>
+      <c r="I94">
+        <v>0.87008656287966424</v>
+      </c>
+      <c r="J94">
+        <v>0.107286271727563</v>
+      </c>
+      <c r="K94">
         <v>9257.8932254077608</v>
       </c>
-      <c r="G94">
-        <v>6.8828239438518291E-2</v>
-      </c>
-      <c r="H94">
-        <v>0.94917185370787205</v>
-      </c>
-      <c r="I94">
+      <c r="L94">
         <v>1645.8496699920511</v>
       </c>
-      <c r="J94">
-        <v>7.0521861777150916E-4</v>
-      </c>
-      <c r="K94">
-        <v>0.87008656287966424</v>
-      </c>
-      <c r="L94">
+      <c r="M94">
         <v>5621.1381650225239</v>
-      </c>
-      <c r="M94">
-        <v>0.107286271727563</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4301,28 +4301,28 @@
         <v>0.96086237705918698</v>
       </c>
       <c r="F95">
+        <v>9.8894272580444781E-2</v>
+      </c>
+      <c r="G95">
+        <v>0.76109289696593341</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0.96819817837488975</v>
+      </c>
+      <c r="J95">
+        <v>0.13702874849371671</v>
+      </c>
+      <c r="K95">
         <v>1799.111652374268</v>
       </c>
-      <c r="G95">
-        <v>9.8894272580444781E-2</v>
-      </c>
-      <c r="H95">
-        <v>0.76109289696593341</v>
-      </c>
-      <c r="I95">
+      <c r="L95">
         <v>11313.840007781981</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0.96819817837488975</v>
-      </c>
-      <c r="L95">
+      <c r="M95">
         <v>1243.478107452393</v>
-      </c>
-      <c r="M95">
-        <v>0.13702874849371671</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4342,28 +4342,28 @@
         <v>0.91962070732241286</v>
       </c>
       <c r="F96">
+        <v>9.8248678018726041E-2</v>
+      </c>
+      <c r="G96">
+        <v>0.76525334415226531</v>
+      </c>
+      <c r="H96">
+        <v>4.3333548464424999E-4</v>
+      </c>
+      <c r="I96">
+        <v>0.9298920703798339</v>
+      </c>
+      <c r="J96">
+        <v>0.1237166387253882</v>
+      </c>
+      <c r="K96">
         <v>4151.8816155309496</v>
       </c>
-      <c r="G96">
-        <v>9.8248678018726041E-2</v>
-      </c>
-      <c r="H96">
-        <v>0.76525334415226531</v>
-      </c>
-      <c r="I96">
+      <c r="L96">
         <v>9686.3984649323193</v>
       </c>
-      <c r="J96">
-        <v>4.3333548464424999E-4</v>
-      </c>
-      <c r="K96">
-        <v>0.9298920703798339</v>
-      </c>
-      <c r="L96">
+      <c r="M96">
         <v>3199.0024705081369</v>
-      </c>
-      <c r="M96">
-        <v>0.1237166387253882</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4383,28 +4383,28 @@
         <v>0.92604923226113356</v>
       </c>
       <c r="F97">
+        <v>0.10802855087699879</v>
+      </c>
+      <c r="G97">
+        <v>0.88769889067544483</v>
+      </c>
+      <c r="H97">
+        <v>4.9362235866519657E-3</v>
+      </c>
+      <c r="I97">
+        <v>0.92001212280544387</v>
+      </c>
+      <c r="J97">
+        <v>0.1176725695699313</v>
+      </c>
+      <c r="K97">
         <v>3600.7931423475729</v>
       </c>
-      <c r="G97">
-        <v>0.10802855087699879</v>
-      </c>
-      <c r="H97">
-        <v>0.88769889067544483</v>
-      </c>
-      <c r="I97">
+      <c r="L97">
         <v>4394.6357305827059</v>
       </c>
-      <c r="J97">
-        <v>4.9362235866519657E-3</v>
-      </c>
-      <c r="K97">
-        <v>0.92001212280544387</v>
-      </c>
-      <c r="L97">
+      <c r="M97">
         <v>3271.9537899559691</v>
-      </c>
-      <c r="M97">
-        <v>0.1176725695699313</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4424,28 +4424,28 @@
         <v>0.8893368885194225</v>
       </c>
       <c r="F98">
+        <v>4.9764693006457257E-2</v>
+      </c>
+      <c r="G98">
+        <v>0.57887491546926884</v>
+      </c>
+      <c r="H98">
+        <v>1.700969552645008E-3</v>
+      </c>
+      <c r="I98">
+        <v>0.95247225008172487</v>
+      </c>
+      <c r="J98">
+        <v>7.7939621754962995E-2</v>
+      </c>
+      <c r="K98">
         <v>5445.279296875</v>
       </c>
-      <c r="G98">
-        <v>4.9764693006457257E-2</v>
-      </c>
-      <c r="H98">
-        <v>0.57887491546926884</v>
-      </c>
-      <c r="I98">
+      <c r="L98">
         <v>23005.384657118051</v>
       </c>
-      <c r="J98">
-        <v>1.700969552645008E-3</v>
-      </c>
-      <c r="K98">
-        <v>0.95247225008172487</v>
-      </c>
-      <c r="L98">
+      <c r="M98">
         <v>1969.188802083333</v>
-      </c>
-      <c r="M98">
-        <v>7.7939621754962995E-2</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4465,28 +4465,28 @@
         <v>0.88851063902667993</v>
       </c>
       <c r="F99">
+        <v>2.6983995813018209E-2</v>
+      </c>
+      <c r="G99">
+        <v>0.91209450565712391</v>
+      </c>
+      <c r="H99">
+        <v>8.260555153807643E-3</v>
+      </c>
+      <c r="I99">
+        <v>0.96824666123952141</v>
+      </c>
+      <c r="J99">
+        <v>9.2111586028984047E-2</v>
+      </c>
+      <c r="K99">
         <v>5538.4454210069443</v>
       </c>
-      <c r="G99">
-        <v>2.6983995813018209E-2</v>
-      </c>
-      <c r="H99">
-        <v>0.91209450565712391</v>
-      </c>
-      <c r="I99">
+      <c r="L99">
         <v>2236.3005642361109</v>
       </c>
-      <c r="J99">
-        <v>8.260555153807643E-3</v>
-      </c>
-      <c r="K99">
-        <v>0.96824666123952141</v>
-      </c>
-      <c r="L99">
+      <c r="M99">
         <v>1125.6763237847219</v>
-      </c>
-      <c r="M99">
-        <v>9.2111586028984047E-2</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4506,28 +4506,28 @@
         <v>0.81573912161526962</v>
       </c>
       <c r="F100">
+        <v>0.25875119360924098</v>
+      </c>
+      <c r="G100">
+        <v>0.89939366182226166</v>
+      </c>
+      <c r="H100">
+        <v>7.5282618823507036E-2</v>
+      </c>
+      <c r="I100">
+        <v>0.90927838118785587</v>
+      </c>
+      <c r="J100">
+        <v>0.37102371802468298</v>
+      </c>
+      <c r="K100">
         <v>6923.1864230600913</v>
       </c>
-      <c r="G100">
-        <v>0.25875119360924143</v>
-      </c>
-      <c r="H100">
-        <v>0.89939366182226166</v>
-      </c>
-      <c r="I100">
+      <c r="L100">
         <v>4133.7086923276156</v>
       </c>
-      <c r="J100">
-        <v>7.5282618823507036E-2</v>
-      </c>
-      <c r="K100">
-        <v>0.90927838118785587</v>
-      </c>
-      <c r="L100">
+      <c r="M100">
         <v>3107.8155102018382</v>
-      </c>
-      <c r="M100">
-        <v>0.37102371802468298</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4536,36 +4536,36 @@
         <v>0.88814241305940667</v>
       </c>
       <c r="F101">
-        <f t="shared" ref="F101:M101" si="0">AVERAGE(F2:F100)</f>
-        <v>5248.3771153604503</v>
+        <f>AVERAGE(F2:F100)</f>
+        <v>0.21932033522002053</v>
       </c>
       <c r="G101">
-        <f t="shared" si="0"/>
-        <v>0.21932033522002053</v>
+        <f t="shared" ref="G101:J101" si="0">AVERAGE(G2:G100)</f>
+        <v>0.86948774256740113</v>
       </c>
       <c r="H101">
         <f t="shared" si="0"/>
-        <v>0.86948774256740113</v>
+        <v>4.5414803368080653E-2</v>
       </c>
       <c r="I101">
         <f t="shared" si="0"/>
-        <v>5829.4627214939019</v>
+        <v>0.92402436033833557</v>
       </c>
       <c r="J101">
         <f t="shared" si="0"/>
-        <v>4.5414803368080653E-2</v>
+        <v>0.26477743773475232</v>
       </c>
       <c r="K101">
-        <f t="shared" si="0"/>
-        <v>0.92402436033833557</v>
+        <f>AVERAGE(K2:K100)</f>
+        <v>5248.3771153604503</v>
       </c>
       <c r="L101">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L2:L100)</f>
+        <v>5829.4627214939019</v>
+      </c>
+      <c r="M101">
+        <f>AVERAGE(M2:M100)</f>
         <v>3103.1698902113908</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="0"/>
-        <v>0.26477743773475232</v>
       </c>
     </row>
   </sheetData>
